--- a/TestData/TestData_Smart.xlsx
+++ b/TestData/TestData_Smart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7710" activeTab="4"/>
+    <workbookView windowWidth="19890" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Create_Quote" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="I214:T224"/>
+  <oleSize ref="I104:T114"/>
 </workbook>
 </file>
 
@@ -1508,11 +1508,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1600,9 +1600,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,7 +1661,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1631,98 +1714,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1743,31 +1743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,7 +1767,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,7 +1809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,13 +1821,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,25 +1851,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,7 +1881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,19 +1893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,31 +1917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,6 +1934,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1956,7 +1980,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1993,39 +2017,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2034,10 +2025,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2049,141 +2052,138 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2239,8 +2239,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2264,7 +2263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2704,7 +2703,7 @@
       <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="41" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
@@ -2774,7 +2773,7 @@
       <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2794,7 +2793,7 @@
       <c r="E7" s="23">
         <v>2400</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>44</v>
       </c>
       <c r="G7" t="s">
@@ -2806,26 +2805,26 @@
       <c r="I7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="39" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="6:12">
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="40"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
@@ -2836,9 +2835,9 @@
       <c r="A11" s="2"/>
       <c r="D11" s="12"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="39"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="36"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="13"/>
     </row>
   </sheetData>
@@ -2908,19 +2907,19 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2971,10 +2970,10 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>57</v>
       </c>
       <c r="F7" t="s">
@@ -2989,7 +2988,7 @@
       <c r="I7" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="42" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3047,13 +3046,13 @@
       <c r="E2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>72</v>
       </c>
       <c r="I2" t="s">
@@ -3076,7 +3075,7 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="11">
@@ -3085,13 +3084,13 @@
       <c r="F3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>57</v>
       </c>
       <c r="H3" s="11">
         <v>1510000935</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>76</v>
       </c>
       <c r="J3" t="s">
@@ -3123,7 +3122,7 @@
       <c r="E6" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>79</v>
       </c>
       <c r="G6" t="s">
@@ -3170,10 +3169,10 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>10933584</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>88</v>
       </c>
       <c r="F7">
@@ -3206,7 +3205,7 @@
       <c r="O7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="42" t="s">
         <v>57</v>
       </c>
       <c r="Q7" s="13">
@@ -3301,8 +3300,8 @@
   <sheetPr/>
   <dimension ref="A1:AA240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I214" workbookViewId="0">
-      <selection activeCell="I231" sqref="I231"/>
+    <sheetView tabSelected="1" topLeftCell="I104" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3495,7 +3494,7 @@
       <c r="Y3" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="Z3" s="43" t="s">
+      <c r="Z3" s="42" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3912,7 +3911,7 @@
       <c r="M23" t="s">
         <v>199</v>
       </c>
-      <c r="N23" s="43" t="s">
+      <c r="N23" s="42" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5319,10 +5318,10 @@
       <c r="C88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="E88" s="45" t="s">
+      <c r="E88" s="44" t="s">
         <v>151</v>
       </c>
       <c r="F88" s="2" t="s">
@@ -5430,7 +5429,7 @@
       <c r="G92" t="s">
         <v>310</v>
       </c>
-      <c r="H92" s="43" t="s">
+      <c r="H92" s="42" t="s">
         <v>311</v>
       </c>
       <c r="I92" t="s">
@@ -5755,7 +5754,7 @@
       <c r="G122" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="H122" s="43" t="s">
+      <c r="H122" s="42" t="s">
         <v>57</v>
       </c>
       <c r="I122">
@@ -5773,7 +5772,7 @@
       <c r="M122" t="s">
         <v>330</v>
       </c>
-      <c r="N122" s="43" t="s">
+      <c r="N122" s="42" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5857,7 +5856,7 @@
       <c r="I126">
         <v>100</v>
       </c>
-      <c r="J126" s="43" t="s">
+      <c r="J126" s="42" t="s">
         <v>57</v>
       </c>
       <c r="K126" t="s">
@@ -5965,25 +5964,25 @@
       <c r="F130" t="s">
         <v>167</v>
       </c>
-      <c r="G130" s="43" t="s">
+      <c r="G130" s="42" t="s">
         <v>57</v>
       </c>
       <c r="H130" t="s">
         <v>219</v>
       </c>
-      <c r="I130" s="43" t="s">
+      <c r="I130" s="42" t="s">
         <v>58</v>
       </c>
       <c r="J130">
         <v>12</v>
       </c>
-      <c r="K130" s="43" t="s">
+      <c r="K130" s="42" t="s">
         <v>60</v>
       </c>
       <c r="L130">
         <v>24</v>
       </c>
-      <c r="M130" s="43" t="s">
+      <c r="M130" s="42" t="s">
         <v>220</v>
       </c>
       <c r="N130">
@@ -6100,25 +6099,25 @@
       <c r="F134" t="s">
         <v>346</v>
       </c>
-      <c r="G134" s="43" t="s">
+      <c r="G134" s="42" t="s">
         <v>57</v>
       </c>
       <c r="H134" t="s">
         <v>219</v>
       </c>
-      <c r="I134" s="43" t="s">
+      <c r="I134" s="42" t="s">
         <v>58</v>
       </c>
       <c r="J134">
         <v>12</v>
       </c>
-      <c r="K134" s="43" t="s">
+      <c r="K134" s="42" t="s">
         <v>60</v>
       </c>
       <c r="L134">
         <v>24</v>
       </c>
-      <c r="M134" s="43" t="s">
+      <c r="M134" s="42" t="s">
         <v>220</v>
       </c>
       <c r="N134">
@@ -6232,25 +6231,25 @@
       <c r="F138" t="s">
         <v>167</v>
       </c>
-      <c r="G138" s="43" t="s">
+      <c r="G138" s="42" t="s">
         <v>57</v>
       </c>
       <c r="H138" t="s">
         <v>219</v>
       </c>
-      <c r="I138" s="43" t="s">
+      <c r="I138" s="42" t="s">
         <v>58</v>
       </c>
       <c r="J138">
         <v>12</v>
       </c>
-      <c r="K138" s="43" t="s">
+      <c r="K138" s="42" t="s">
         <v>60</v>
       </c>
       <c r="L138">
         <v>24</v>
       </c>
-      <c r="M138" s="43" t="s">
+      <c r="M138" s="42" t="s">
         <v>220</v>
       </c>
       <c r="N138">
@@ -6361,25 +6360,25 @@
       <c r="F142" t="s">
         <v>167</v>
       </c>
-      <c r="G142" s="43" t="s">
+      <c r="G142" s="42" t="s">
         <v>57</v>
       </c>
       <c r="H142" t="s">
         <v>219</v>
       </c>
-      <c r="I142" s="43" t="s">
+      <c r="I142" s="42" t="s">
         <v>58</v>
       </c>
       <c r="J142">
         <v>12</v>
       </c>
-      <c r="K142" s="43" t="s">
+      <c r="K142" s="42" t="s">
         <v>60</v>
       </c>
       <c r="L142">
         <v>24</v>
       </c>
-      <c r="M142" s="43" t="s">
+      <c r="M142" s="42" t="s">
         <v>220</v>
       </c>
       <c r="N142">
@@ -7799,7 +7798,7 @@
       <c r="F180" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="G180" s="46" t="s">
+      <c r="G180" s="45" t="s">
         <v>138</v>
       </c>
       <c r="H180" s="25" t="s">
@@ -7943,7 +7942,7 @@
       <c r="H184" s="25">
         <v>6529107</v>
       </c>
-      <c r="I184" s="47" t="s">
+      <c r="I184" s="46" t="s">
         <v>57</v>
       </c>
       <c r="J184" s="25" t="s">
@@ -7952,7 +7951,7 @@
       <c r="K184" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L184" s="47" t="s">
+      <c r="L184" s="46" t="s">
         <v>58</v>
       </c>
       <c r="M184" s="25" t="s">
@@ -8049,7 +8048,7 @@
       <c r="G188" t="s">
         <v>398</v>
       </c>
-      <c r="H188" s="43" t="s">
+      <c r="H188" s="42" t="s">
         <v>207</v>
       </c>
       <c r="I188" t="s">
@@ -8562,7 +8561,7 @@
       <c r="H208" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="I208" s="43" t="s">
+      <c r="I208" s="42" t="s">
         <v>57</v>
       </c>
       <c r="J208">
@@ -8580,16 +8579,16 @@
       <c r="O208">
         <v>1510000957</v>
       </c>
-      <c r="P208" s="43" t="s">
+      <c r="P208" s="42" t="s">
         <v>58</v>
       </c>
       <c r="Q208">
         <v>83.63</v>
       </c>
-      <c r="T208" s="43" t="s">
+      <c r="T208" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="V208" s="48" t="s">
+      <c r="V208" s="47" t="s">
         <v>444</v>
       </c>
       <c r="W208" t="s">
@@ -8598,7 +8597,7 @@
       <c r="X208">
         <v>1500</v>
       </c>
-      <c r="Y208" s="43" t="s">
+      <c r="Y208" s="42" t="s">
         <v>60</v>
       </c>
       <c r="AA208">
@@ -8688,7 +8687,7 @@
       <c r="H212" t="s">
         <v>279</v>
       </c>
-      <c r="I212" s="43" t="s">
+      <c r="I212" s="42" t="s">
         <v>57</v>
       </c>
       <c r="J212">
@@ -8790,7 +8789,7 @@
       <c r="H216" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="I216" s="49" t="s">
+      <c r="I216" s="48" t="s">
         <v>57</v>
       </c>
       <c r="J216" s="3">
@@ -8874,10 +8873,10 @@
       <c r="E220" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F220" s="43" t="s">
+      <c r="F220" s="42" t="s">
         <v>465</v>
       </c>
-      <c r="G220" s="43" t="s">
+      <c r="G220" s="42" t="s">
         <v>58</v>
       </c>
       <c r="H220" t="s">
@@ -8892,10 +8891,10 @@
       <c r="K220" t="s">
         <v>468</v>
       </c>
-      <c r="L220" s="50" t="s">
+      <c r="L220" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="M220" s="50" t="s">
+      <c r="M220" s="49" t="s">
         <v>470</v>
       </c>
       <c r="N220" s="13" t="s">
@@ -8961,7 +8960,7 @@
       <c r="G224" t="s">
         <v>152</v>
       </c>
-      <c r="H224" s="43" t="s">
+      <c r="H224" s="42" t="s">
         <v>474</v>
       </c>
       <c r="I224" t="s">
@@ -9138,10 +9137,10 @@
       <c r="C232" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D232" s="43" t="s">
+      <c r="D232" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="E232" s="33" t="s">
+      <c r="E232" s="4" t="s">
         <v>487</v>
       </c>
       <c r="F232" t="s">
@@ -9171,7 +9170,7 @@
       <c r="N232" t="s">
         <v>491</v>
       </c>
-      <c r="O232" s="43" t="s">
+      <c r="O232" s="42" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9240,7 +9239,7 @@
       <c r="F236" t="s">
         <v>492</v>
       </c>
-      <c r="G236" s="43" t="s">
+      <c r="G236" s="42" t="s">
         <v>58</v>
       </c>
       <c r="H236" t="s">
@@ -9252,10 +9251,10 @@
       <c r="J236" t="s">
         <v>468</v>
       </c>
-      <c r="K236" s="34">
+      <c r="K236" s="33">
         <v>41673</v>
       </c>
-      <c r="L236" s="34">
+      <c r="L236" s="33">
         <v>42111</v>
       </c>
       <c r="M236" s="8" t="s">

--- a/TestData/TestData_Smart.xlsx
+++ b/TestData/TestData_Smart.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Create_Quote" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="I104:T114"/>
+  <oleSize ref="J213:U223"/>
 </workbook>
 </file>
 
@@ -1508,10 +1508,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="30">
@@ -1601,16 +1601,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1630,11 +1638,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1660,39 +1667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1707,7 +1683,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1720,9 +1712,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1743,13 +1743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,6 +1767,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1779,7 +1785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,13 +1797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1815,54 +1815,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1875,13 +1827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,25 +1839,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,6 +1909,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1934,6 +1934,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1952,15 +1961,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1972,15 +1972,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2034,152 +2025,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3300,8 +3300,8 @@
   <sheetPr/>
   <dimension ref="A1:AA240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I104" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" topLeftCell="J213" workbookViewId="0">
+      <selection activeCell="L228" sqref="L228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9048,16 +9048,16 @@
         <v>152</v>
       </c>
       <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
         <v>2</v>
       </c>
-      <c r="I228">
+      <c r="J228">
         <v>3</v>
       </c>
-      <c r="J228">
+      <c r="K228">
         <v>4</v>
-      </c>
-      <c r="K228">
-        <v>5</v>
       </c>
       <c r="L228">
         <v>4</v>

--- a/TestData/TestData_Smart.xlsx
+++ b/TestData/TestData_Smart.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Create_Quote" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="J213:U223"/>
+  <oleSize ref="D90:O100"/>
 </workbook>
 </file>
 
@@ -3300,8 +3300,8 @@
   <sheetPr/>
   <dimension ref="A1:AA240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J213" workbookViewId="0">
-      <selection activeCell="L228" sqref="L228"/>
+    <sheetView tabSelected="1" topLeftCell="D90" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/TestData/TestData_Smart.xlsx
+++ b/TestData/TestData_Smart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7710" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="508">
   <si>
     <t>SER01_AccountSearch</t>
   </si>
@@ -965,108 +965,111 @@
     <t>ContractTab1</t>
   </si>
   <si>
+    <t>WS-C2960X-24PS-L,U4414E,4X90F84315</t>
+  </si>
+  <si>
+    <t>U4414E</t>
+  </si>
+  <si>
+    <t>4X90F84315</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>ZZ Contract Product &amp; Price Review</t>
+  </si>
+  <si>
+    <t>ZXTX#ZXMA#ZSWH#ZSSP#ZSRS#ZSRC#ZSPT#ZSPE#ZSPC#ZSMN#ZSLV#ZSFC#ZSEF#ZSDT#ZSDI#ZSDE#ZSCD#ZSCC#ZSBC#ZRTX#ZRFC#ZREW#ZRAP#ZPMN#ZPML#ZPLS#ZPFX#ZP00#ZMSM#ZMOV#ZMAM#ZIRP#ZIRO#ZHLD#ZFSS#ZFSR#ZFSM#ZFSF#ZFSC#ZFRC#ZFPR#ZFNR#ZFLS#ZFCD#ZF00#ZDN0#ZDML#ZCWH#ZCST#ZCSD#ZCLV#ZCLT#ZCDI#Z0RC#Z0FC#Z0BC#Z0AP#YSDF#YSCF#YP00#YOIP#YOD%#YMOV#YIPR#YIPO#YIP4#YIP2#YDLP#XR6#XR5#XR4#XR3#XR2#XR1#VPRS#UTXE#UTXD#0TTE</t>
+  </si>
+  <si>
+    <t>ZPFX#ZP00#ZMAM#Z0RC</t>
+  </si>
+  <si>
+    <t>CQT23_IPSContractpricing_CostplusContract</t>
+  </si>
+  <si>
+    <t>ContractTab2</t>
+  </si>
+  <si>
+    <t>C7972A</t>
+  </si>
+  <si>
+    <t>1510000517</t>
+  </si>
+  <si>
+    <t>Z0RC</t>
+  </si>
+  <si>
+    <t>YMSM</t>
+  </si>
+  <si>
+    <t>ZXTX#ZXMA#ZSWH#ZSSP#ZSRS#ZSRC#ZSPT#ZSPE#ZSPC#ZSMN#ZSLV#ZSFC#ZSEF#ZSDT#ZSDI#ZSDE#ZSCD#ZSCC#ZSBC#ZRTX#ZRFC#ZREW#ZRAP#ZPMN#ZPML#ZPLS#ZP00#ZMSM#ZMOV#ZMAM#ZIRP#ZIRO#ZHLD#ZFSS#ZFSR#ZFSM#ZFSF#ZFSC#ZFRC#ZFPR#ZFNR#ZFLS#ZFCD#ZF00#ZDN0#ZCWH#ZCST#ZCSD#ZCLV#ZCLT#ZCDI#Z0RC#Z0FC#Z0BC#Z0AP#YSDF#YSCF#YP00#YOIP#YOD%#YMOV#YIPR#YIPO#YIP4#YIP2#YDLP#XR6#XR5#XR4#XR3#XR2#XR1#VPRS#UTXE#UTXD#0TTE</t>
+  </si>
+  <si>
+    <t>ZP00#Z0RC#YP00#YMSM</t>
+  </si>
+  <si>
+    <t>CQT24_IPSContractpricingFixedPriceContract</t>
+  </si>
+  <si>
+    <t>SoldtoValue</t>
+  </si>
+  <si>
+    <t>PricingID</t>
+  </si>
+  <si>
+    <t>PricingIDX</t>
+  </si>
+  <si>
+    <t>TSName</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>ContractID</t>
+  </si>
+  <si>
+    <t>0010529929</t>
+  </si>
+  <si>
+    <t>C825343#40Y7659#CE255A</t>
+  </si>
+  <si>
+    <t>ZPFX#ZP00</t>
+  </si>
+  <si>
+    <t>23#24</t>
+  </si>
+  <si>
+    <t>FixedPriceContract</t>
+  </si>
+  <si>
+    <t>CQT24</t>
+  </si>
+  <si>
+    <t>CQT25_IPSContractpricing_InsightListminusContract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON-ISV1-VSSTD1A </t>
+  </si>
+  <si>
+    <t>1510000684</t>
+  </si>
+  <si>
+    <t>ZPLS#ZP00#YDLP#YP00</t>
+  </si>
+  <si>
+    <t>CQT26_IPSContractpricin_MSRPminusContract</t>
+  </si>
+  <si>
+    <t>PWR-400W-AC</t>
+  </si>
+  <si>
     <t>WS-C2960X-24PS-L</t>
   </si>
   <si>
-    <t>U4414E</t>
-  </si>
-  <si>
-    <t>4X90F84315</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>ZZ Contract Product &amp; Price Review</t>
-  </si>
-  <si>
-    <t>ZXTX#ZXMA#ZSWH#ZSSP#ZSRS#ZSRC#ZSPT#ZSPE#ZSPC#ZSMN#ZSLV#ZSFC#ZSEF#ZSDT#ZSDI#ZSDE#ZSCD#ZSCC#ZSBC#ZRTX#ZRFC#ZREW#ZRAP#ZPMN#ZPML#ZPLS#ZPFX#ZP00#ZMSM#ZMOV#ZMAM#ZIRP#ZIRO#ZHLD#ZFSS#ZFSR#ZFSM#ZFSF#ZFSC#ZFRC#ZFPR#ZFNR#ZFLS#ZFCD#ZF00#ZDN0#ZDML#ZCWH#ZCST#ZCSD#ZCLV#ZCLT#ZCDI#Z0RC#Z0FC#Z0BC#Z0AP#YSDF#YSCF#YP00#YOIP#YOD%#YMOV#YIPR#YIPO#YIP4#YIP2#YDLP#XR6#XR5#XR4#XR3#XR2#XR1#VPRS#UTXE#UTXD#0TTE</t>
-  </si>
-  <si>
-    <t>ZPFX#ZP00#ZMAM#Z0RC</t>
-  </si>
-  <si>
-    <t>CQT23_IPSContractpricing_CostplusContract</t>
-  </si>
-  <si>
-    <t>ContractTab2</t>
-  </si>
-  <si>
-    <t>C7972A</t>
-  </si>
-  <si>
-    <t>1510000517</t>
-  </si>
-  <si>
-    <t>Z0RC</t>
-  </si>
-  <si>
-    <t>YMSM</t>
-  </si>
-  <si>
-    <t>ZXTX#ZXMA#ZSWH#ZSSP#ZSRS#ZSRC#ZSPT#ZSPE#ZSPC#ZSMN#ZSLV#ZSFC#ZSEF#ZSDT#ZSDI#ZSDE#ZSCD#ZSCC#ZSBC#ZRTX#ZRFC#ZREW#ZRAP#ZPMN#ZPML#ZPLS#ZP00#ZMSM#ZMOV#ZMAM#ZIRP#ZIRO#ZHLD#ZFSS#ZFSR#ZFSM#ZFSF#ZFSC#ZFRC#ZFPR#ZFNR#ZFLS#ZFCD#ZF00#ZDN0#ZCWH#ZCST#ZCSD#ZCLV#ZCLT#ZCDI#Z0RC#Z0FC#Z0BC#Z0AP#YSDF#YSCF#YP00#YOIP#YOD%#YMOV#YIPR#YIPO#YIP4#YIP2#YDLP#XR6#XR5#XR4#XR3#XR2#XR1#VPRS#UTXE#UTXD#0TTE</t>
-  </si>
-  <si>
-    <t>ZP00#Z0RC#YP00#YMSM</t>
-  </si>
-  <si>
-    <t>CQT24_IPSContractpricingFixedPriceContract</t>
-  </si>
-  <si>
-    <t>SoldtoValue</t>
-  </si>
-  <si>
-    <t>PricingID</t>
-  </si>
-  <si>
-    <t>PricingIDX</t>
-  </si>
-  <si>
-    <t>TSName</t>
-  </si>
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>ContractID</t>
-  </si>
-  <si>
-    <t>0010529929</t>
-  </si>
-  <si>
-    <t>C825343#40Y7659#CE255A</t>
-  </si>
-  <si>
-    <t>ZPFX#ZP00</t>
-  </si>
-  <si>
-    <t>23#24</t>
-  </si>
-  <si>
-    <t>FixedPriceContract</t>
-  </si>
-  <si>
-    <t>CQT24</t>
-  </si>
-  <si>
-    <t>CQT25_IPSContractpricing_InsightListminusContract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON-ISV1-VSSTD1A </t>
-  </si>
-  <si>
-    <t>1510000684</t>
-  </si>
-  <si>
-    <t>ZPLS#ZP00#YDLP#YP00</t>
-  </si>
-  <si>
-    <t>CQT26_IPSContractpricin_MSRPminusContract</t>
-  </si>
-  <si>
-    <t>PWR-400W-AC</t>
-  </si>
-  <si>
     <t>CON-NSNT-C881WACC</t>
   </si>
   <si>
@@ -1109,10 +1112,16 @@
     <t>CQT29_IPSContractpricing_USCPriceMatchContract</t>
   </si>
   <si>
+    <t>ContractTabName1</t>
+  </si>
+  <si>
     <t>CQT30_IPSCPSSNonTax_Action1_Script</t>
   </si>
   <si>
     <t>SpecialOrderType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContractId </t>
   </si>
   <si>
     <t>AP5717</t>
@@ -1540,20 +1549,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1611,7 +1613,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,40 +1689,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1679,6 +1726,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1687,60 +1742,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1761,7 +1763,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,19 +1859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,79 +1883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,25 +1907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,31 +1931,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,11 +1959,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1981,10 +1990,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1995,15 +2021,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2019,21 +2036,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2055,272 +2057,269 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2756,28 +2755,28 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="36" t="s">
         <v>33</v>
       </c>
       <c r="Q3" t="s">
@@ -2786,7 +2785,7 @@
       <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="36" t="s">
         <v>34</v>
       </c>
       <c r="T3" s="26" t="s">
@@ -2832,7 +2831,7 @@
       <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2849,10 +2848,10 @@
       <c r="D7" s="26">
         <v>10283501</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>2400</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>44</v>
       </c>
       <c r="G7" t="s">
@@ -2861,29 +2860,29 @@
       <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="6:12">
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25"/>
@@ -2893,10 +2892,10 @@
     <row r="11" spans="1:11">
       <c r="A11" s="25"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="29"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="28"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="28"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="27"/>
     </row>
   </sheetData>
@@ -2967,19 +2966,19 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3030,25 +3029,25 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>57</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3162,13 +3161,13 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="3">
         <v>10933584</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>15</v>
       </c>
       <c r="G3" t="s">
@@ -3210,8 +3209,8 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="R4" s="27"/>
@@ -3237,13 +3236,13 @@
       <c r="E6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>93</v>
       </c>
       <c r="I6" t="s">
@@ -3266,19 +3265,19 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>10529929</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <v>1510000935</v>
       </c>
       <c r="I7" t="s">
@@ -3381,8 +3380,8 @@
   <sheetPr/>
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F94" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3503,7 +3502,7 @@
       <c r="H3" s="3">
         <v>6529107</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="40" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -3512,7 +3511,7 @@
       <c r="K3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="40" t="s">
         <v>58</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -3837,7 +3836,7 @@
       <c r="Y11" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="Z11" s="42" t="s">
+      <c r="Z11" s="41" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4014,7 +4013,7 @@
       <c r="I19" s="1">
         <v>100</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="41" t="s">
         <v>57</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -4185,7 +4184,7 @@
       <c r="F27" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="41" t="s">
         <v>58</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -4272,10 +4271,10 @@
       <c r="E31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="41" t="s">
         <v>58</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -4290,10 +4289,10 @@
       <c r="K31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L31" s="43" t="s">
+      <c r="L31" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="M31" s="43" t="s">
+      <c r="M31" s="42" t="s">
         <v>209</v>
       </c>
       <c r="N31" s="16" t="s">
@@ -4641,7 +4640,7 @@
       <c r="M47" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="N47" s="42" t="s">
+      <c r="N47" s="41" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4793,7 +4792,7 @@
       <c r="F55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G55" s="44" t="s">
+      <c r="G55" s="43" t="s">
         <v>153</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -4909,7 +4908,7 @@
       <c r="G59" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H59" s="42" t="s">
+      <c r="H59" s="41" t="s">
         <v>254</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -5671,10 +5670,10 @@
       <c r="C95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="45" t="s">
+      <c r="D95" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="E95" s="46" t="s">
+      <c r="E95" s="45" t="s">
         <v>303</v>
       </c>
       <c r="F95" s="4" t="s">
@@ -5782,7 +5781,7 @@
       <c r="G99" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H99" s="42" t="s">
+      <c r="H99" s="41" t="s">
         <v>345</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -5870,13 +5869,13 @@
         <v>348</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H103" s="42" t="s">
         <v>350</v>
+      </c>
+      <c r="H103" s="41" t="s">
+        <v>351</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>216</v>
@@ -5885,10 +5884,10 @@
         <v>145</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M103" s="1">
         <v>4</v>
@@ -5899,7 +5898,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5919,10 +5918,10 @@
         <v>178</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>314</v>
@@ -5949,7 +5948,7 @@
         <v>42</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5966,7 +5965,7 @@
         <v>10529929</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -5999,12 +5998,12 @@
         <v>49</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6065,7 +6064,7 @@
         <v>10283502</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F111" s="1">
         <v>1510000771</v>
@@ -6080,7 +6079,7 @@
         <v>320</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K111" s="1">
         <v>4</v>
@@ -6089,18 +6088,18 @@
         <v>216</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="4" t="s">
         <v>1</v>
       </c>
@@ -6126,10 +6125,10 @@
         <v>105</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>198</v>
+        <v>364</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>299</v>
@@ -6143,8 +6142,11 @@
       <c r="N114" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="O114" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="4" t="s">
         <v>21</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>348</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="H115" s="1">
         <v>1510000935</v>
@@ -6179,13 +6181,16 @@
         <v>1</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>306</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -6195,7 +6200,7 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6243,7 +6248,7 @@
         <v>334</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>262</v>
@@ -6254,7 +6259,9 @@
       <c r="J118" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K118" s="14"/>
+      <c r="K118" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
@@ -6285,13 +6292,13 @@
         <v>10529929</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>269</v>
@@ -6325,7 +6332,7 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -6379,7 +6386,7 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6436,28 +6443,28 @@
         <v>264</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K123" s="14" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>73</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
@@ -6483,10 +6490,10 @@
         <v>10529929</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G124" s="3">
         <v>12345</v>
@@ -6498,19 +6505,19 @@
         <v>269</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K124" s="14">
         <v>12345</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M124" s="3">
         <v>12345</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O124" s="3">
         <v>90</v>
@@ -6561,7 +6568,7 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6618,28 +6625,28 @@
         <v>264</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>73</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
@@ -6665,10 +6672,10 @@
         <v>10283502</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G128" s="3">
         <v>12345</v>
@@ -6680,19 +6687,19 @@
         <v>271</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K128" s="14">
         <v>12345</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M128" s="3">
         <v>12345</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O128" s="3">
         <v>90</v>
@@ -6719,7 +6726,7 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -6773,7 +6780,7 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6790,25 +6797,25 @@
         <v>118</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>206</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6837,18 +6844,18 @@
         <v>57</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>216</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -6877,37 +6884,37 @@
         <v>62</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>334</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>74</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="T136" s="1" t="s">
         <v>73</v>
@@ -6930,10 +6937,10 @@
         <v>2500</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>57</v>
@@ -6954,7 +6961,7 @@
         <v>1234</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>269</v>
@@ -6963,21 +6970,21 @@
         <v>232</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="R137" s="1">
         <v>12345</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -7006,37 +7013,37 @@
         <v>62</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>334</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R140" s="1" t="s">
         <v>74</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="T140" s="1" t="s">
         <v>73</v>
@@ -7059,10 +7066,10 @@
         <v>2500</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>57</v>
@@ -7083,7 +7090,7 @@
         <v>1234</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>269</v>
@@ -7092,21 +7099,21 @@
         <v>232</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="R141" s="1">
         <v>12345</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -7126,28 +7133,28 @@
         <v>37</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>286</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>290</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>291</v>
@@ -7156,10 +7163,10 @@
         <v>40</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="R144" s="1" t="s">
         <v>299</v>
@@ -7193,26 +7200,26 @@
       <c r="F145" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G145" s="42" t="s">
+      <c r="G145" s="41" t="s">
         <v>57</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I145" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="I145" s="41" t="s">
         <v>58</v>
       </c>
       <c r="J145" s="1">
         <v>12</v>
       </c>
-      <c r="K145" s="42" t="s">
+      <c r="K145" s="41" t="s">
         <v>60</v>
       </c>
       <c r="L145" s="1">
         <v>24</v>
       </c>
-      <c r="M145" s="42" t="s">
-        <v>404</v>
+      <c r="M145" s="41" t="s">
+        <v>407</v>
       </c>
       <c r="N145" s="1">
         <v>36</v>
@@ -7233,15 +7240,15 @@
         <v>328</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -7258,40 +7265,40 @@
         <v>118</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>286</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>290</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>291</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q148" s="1" t="s">
         <v>295</v>
@@ -7317,13 +7324,13 @@
         <v>10529929</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H149" s="1">
         <v>12</v>
@@ -7335,19 +7342,19 @@
         <v>24</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L149" s="1">
         <v>36</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>216</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>145</v>
@@ -7364,7 +7371,7 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -7384,28 +7391,28 @@
         <v>37</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>286</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>290</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>291</v>
@@ -7414,10 +7421,10 @@
         <v>40</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>299</v>
@@ -7449,28 +7456,28 @@
         <v>2500</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G153" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="G153" s="41" t="s">
         <v>57</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I153" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="I153" s="41" t="s">
         <v>58</v>
       </c>
       <c r="J153" s="1">
         <v>12</v>
       </c>
-      <c r="K153" s="42" t="s">
+      <c r="K153" s="41" t="s">
         <v>60</v>
       </c>
       <c r="L153" s="1">
         <v>24</v>
       </c>
-      <c r="M153" s="42" t="s">
-        <v>404</v>
+      <c r="M153" s="41" t="s">
+        <v>407</v>
       </c>
       <c r="N153" s="1">
         <v>36</v>
@@ -7491,15 +7498,15 @@
         <v>308</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="U153" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -7519,28 +7526,28 @@
         <v>37</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>286</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L156" s="1" t="s">
         <v>290</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N156" s="1" t="s">
         <v>291</v>
@@ -7549,10 +7556,10 @@
         <v>40</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>299</v>
@@ -7583,26 +7590,26 @@
       <c r="F157" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G157" s="42" t="s">
+      <c r="G157" s="41" t="s">
         <v>57</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I157" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="I157" s="41" t="s">
         <v>58</v>
       </c>
       <c r="J157" s="1">
         <v>12</v>
       </c>
-      <c r="K157" s="42" t="s">
+      <c r="K157" s="41" t="s">
         <v>60</v>
       </c>
       <c r="L157" s="1">
         <v>24</v>
       </c>
-      <c r="M157" s="42" t="s">
-        <v>404</v>
+      <c r="M157" s="41" t="s">
+        <v>407</v>
       </c>
       <c r="N157" s="1">
         <v>36</v>
@@ -7623,12 +7630,12 @@
         <v>328</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -7648,28 +7655,28 @@
         <v>37</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>286</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>290</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N160" s="1" t="s">
         <v>291</v>
@@ -7678,10 +7685,10 @@
         <v>40</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="R160" s="1" t="s">
         <v>299</v>
@@ -7712,26 +7719,26 @@
       <c r="F161" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G161" s="42" t="s">
+      <c r="G161" s="41" t="s">
         <v>57</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I161" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="I161" s="41" t="s">
         <v>58</v>
       </c>
       <c r="J161" s="1">
         <v>12</v>
       </c>
-      <c r="K161" s="42" t="s">
+      <c r="K161" s="41" t="s">
         <v>60</v>
       </c>
       <c r="L161" s="1">
         <v>24</v>
       </c>
-      <c r="M161" s="42" t="s">
-        <v>404</v>
+      <c r="M161" s="41" t="s">
+        <v>407</v>
       </c>
       <c r="N161" s="1">
         <v>36</v>
@@ -7757,7 +7764,7 @@
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -7789,7 +7796,7 @@
         <v>52</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>39</v>
@@ -7824,13 +7831,13 @@
         <v>2500</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>57</v>
@@ -7856,7 +7863,7 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7888,7 +7895,7 @@
         <v>62</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>126</v>
@@ -7920,15 +7927,15 @@
         <v>2500</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G169" s="22" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H169" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="I169" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="I169" s="46" t="s">
         <v>57</v>
       </c>
       <c r="J169" s="5">
@@ -7944,12 +7951,12 @@
         <v>320</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -7975,10 +7982,10 @@
         <v>62</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>39</v>
@@ -8013,7 +8020,7 @@
         <v>2500</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>57</v>
@@ -8034,7 +8041,7 @@
         <v>328</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>216</v>
@@ -8042,7 +8049,7 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="176" spans="1:15">
@@ -8074,7 +8081,7 @@
         <v>62</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>126</v>
@@ -8109,13 +8116,13 @@
         <v>2500</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>57</v>
@@ -8133,7 +8140,7 @@
         <v>328</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>216</v>
@@ -8141,7 +8148,7 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -8170,46 +8177,46 @@
         <v>156</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L180" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="N180" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="R180" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="U180" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="V180" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="W180" s="1" t="s">
         <v>157</v>
@@ -8218,13 +8225,13 @@
         <v>72</v>
       </c>
       <c r="Y180" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Z180" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AA180" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -8244,7 +8251,7 @@
         <v>2400</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>324</v>
@@ -8252,7 +8259,7 @@
       <c r="H181" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="I181" s="42" t="s">
+      <c r="I181" s="41" t="s">
         <v>57</v>
       </c>
       <c r="J181" s="1">
@@ -8270,25 +8277,25 @@
       <c r="O181" s="1">
         <v>1510000957</v>
       </c>
-      <c r="P181" s="42" t="s">
+      <c r="P181" s="41" t="s">
         <v>58</v>
       </c>
       <c r="Q181" s="1">
         <v>83.63</v>
       </c>
-      <c r="T181" s="42" t="s">
+      <c r="T181" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="V181" s="48" t="s">
-        <v>445</v>
+      <c r="V181" s="47" t="s">
+        <v>448</v>
       </c>
       <c r="W181" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="X181" s="1">
         <v>1500</v>
       </c>
-      <c r="Y181" s="42" t="s">
+      <c r="Y181" s="41" t="s">
         <v>60</v>
       </c>
       <c r="AA181" s="1">
@@ -8297,7 +8304,7 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -8326,16 +8333,16 @@
         <v>62</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>73</v>
@@ -8364,7 +8371,7 @@
         <v>96</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>57</v>
@@ -8373,13 +8380,13 @@
         <v>1510000830</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>83</v>
@@ -8390,7 +8397,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8438,28 +8445,28 @@
         <v>73</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K188" s="14" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>105</v>
@@ -8490,34 +8497,34 @@
         <v>10600194</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J189" s="3" t="s">
         <v>175</v>
       </c>
       <c r="K189" s="14" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="O189">
         <v>1510000830</v>
@@ -8564,7 +8571,7 @@
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="1:17">
@@ -8596,28 +8603,28 @@
         <v>52</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>300</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:17">
@@ -8637,15 +8644,15 @@
         <v>2500</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I193" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="I193" s="41" t="s">
         <v>57</v>
       </c>
       <c r="J193" s="1">
@@ -8661,7 +8668,7 @@
         <v>320</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>216</v>
@@ -8670,12 +8677,12 @@
         <v>4</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -8704,16 +8711,16 @@
         <v>62</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>73</v>
@@ -8739,10 +8746,10 @@
         <v>2500</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>57</v>
@@ -8751,13 +8758,13 @@
         <v>1510000684</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>83</v>
@@ -8768,7 +8775,7 @@
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:15">
@@ -8794,10 +8801,10 @@
         <v>312</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>39</v>
@@ -8815,7 +8822,7 @@
         <v>301</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="201" spans="1:15">
@@ -8828,20 +8835,20 @@
       <c r="C201" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D201" s="42" t="s">
-        <v>483</v>
+      <c r="D201" s="41" t="s">
+        <v>486</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="I201" s="1">
         <v>1510000848</v>
@@ -8856,18 +8863,18 @@
         <v>4</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="O201" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="O201" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -8887,22 +8894,22 @@
         <v>178</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>206</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L204" s="1" t="s">
         <v>251</v>
@@ -8914,10 +8921,10 @@
         <v>312</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -8958,21 +8965,21 @@
         <v>4</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>302</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -8995,13 +9002,13 @@
         <v>39</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>42</v>
@@ -9033,7 +9040,7 @@
         <v>57</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="J209" s="16" t="s">
         <v>49</v>
@@ -9041,7 +9048,7 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -9070,7 +9077,7 @@
         <v>52</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>126</v>
@@ -9105,12 +9112,12 @@
         <v>2500</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="H213" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="H213" s="41" t="s">
         <v>57</v>
       </c>
       <c r="I213" s="1">
@@ -9126,9 +9133,9 @@
         <v>328</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="N213" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="N213" s="41" t="s">
         <v>58</v>
       </c>
     </row>

--- a/TestData/TestData_Smart.xlsx
+++ b/TestData/TestData_Smart.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="509">
   <si>
     <t>SER01_AccountSearch</t>
   </si>
@@ -1182,6 +1182,9 @@
   </si>
   <si>
     <t>HistoryOption</t>
+  </si>
+  <si>
+    <t>0217187623</t>
   </si>
   <si>
     <t>Document Flow</t>
@@ -1550,10 +1553,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1620,29 +1623,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,10 +1638,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1672,22 +1676,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1704,7 +1700,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1718,6 +1714,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1726,23 +1729,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,13 +1766,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,13 +1796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,25 +1820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,19 +1856,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,37 +1892,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,19 +1922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,19 +1940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,6 +1965,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2007,17 +2025,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2040,166 +2047,162 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3380,8 +3383,8 @@
   <sheetPr/>
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3392,7 +3395,7 @@
     <col min="4" max="4" width="14.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7142857142857" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.1428571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="42.8571428571429" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.7142857142857" style="1" customWidth="1"/>
@@ -6837,8 +6840,8 @@
       <c r="F133" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G133" s="1">
-        <v>217187623</v>
+      <c r="G133" s="41" t="s">
+        <v>388</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>57</v>
@@ -6850,12 +6853,12 @@
         <v>216</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -6887,34 +6890,34 @@
         <v>386</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>334</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>74</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T136" s="1" t="s">
         <v>73</v>
@@ -6961,7 +6964,7 @@
         <v>1234</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>269</v>
@@ -6970,13 +6973,13 @@
         <v>232</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R137" s="1">
         <v>12345</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T137" s="1" t="s">
         <v>379</v>
@@ -6984,7 +6987,7 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -7016,34 +7019,34 @@
         <v>386</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>334</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R140" s="1" t="s">
         <v>74</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T140" s="1" t="s">
         <v>73</v>
@@ -7090,7 +7093,7 @@
         <v>1234</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>269</v>
@@ -7099,13 +7102,13 @@
         <v>232</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R141" s="1">
         <v>12345</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T141" s="1" t="s">
         <v>379</v>
@@ -7113,7 +7116,7 @@
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -7136,25 +7139,25 @@
         <v>383</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>286</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>290</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>291</v>
@@ -7166,7 +7169,7 @@
         <v>386</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R144" s="1" t="s">
         <v>299</v>
@@ -7204,7 +7207,7 @@
         <v>57</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I145" s="41" t="s">
         <v>58</v>
@@ -7219,7 +7222,7 @@
         <v>24</v>
       </c>
       <c r="M145" s="41" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N145" s="1">
         <v>36</v>
@@ -7240,15 +7243,15 @@
         <v>328</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -7268,22 +7271,22 @@
         <v>383</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>286</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>290</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>291</v>
@@ -7298,7 +7301,7 @@
         <v>387</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q148" s="1" t="s">
         <v>295</v>
@@ -7324,13 +7327,13 @@
         <v>10529929</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H149" s="1">
         <v>12</v>
@@ -7342,19 +7345,19 @@
         <v>24</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L149" s="1">
         <v>36</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>216</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>145</v>
@@ -7371,7 +7374,7 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -7394,25 +7397,25 @@
         <v>383</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>286</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>290</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>291</v>
@@ -7424,7 +7427,7 @@
         <v>386</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>299</v>
@@ -7456,13 +7459,13 @@
         <v>2500</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G153" s="41" t="s">
         <v>57</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I153" s="41" t="s">
         <v>58</v>
@@ -7477,7 +7480,7 @@
         <v>24</v>
       </c>
       <c r="M153" s="41" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N153" s="1">
         <v>36</v>
@@ -7498,15 +7501,15 @@
         <v>308</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U153" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -7529,25 +7532,25 @@
         <v>383</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>286</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L156" s="1" t="s">
         <v>290</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N156" s="1" t="s">
         <v>291</v>
@@ -7559,7 +7562,7 @@
         <v>386</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>299</v>
@@ -7594,7 +7597,7 @@
         <v>57</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I157" s="41" t="s">
         <v>58</v>
@@ -7609,7 +7612,7 @@
         <v>24</v>
       </c>
       <c r="M157" s="41" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N157" s="1">
         <v>36</v>
@@ -7635,7 +7638,7 @@
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -7658,25 +7661,25 @@
         <v>383</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>286</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>290</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N160" s="1" t="s">
         <v>291</v>
@@ -7688,7 +7691,7 @@
         <v>386</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R160" s="1" t="s">
         <v>299</v>
@@ -7723,7 +7726,7 @@
         <v>57</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I161" s="41" t="s">
         <v>58</v>
@@ -7738,7 +7741,7 @@
         <v>24</v>
       </c>
       <c r="M161" s="41" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N161" s="1">
         <v>36</v>
@@ -7764,7 +7767,7 @@
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -7831,13 +7834,13 @@
         <v>2500</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>57</v>
@@ -7863,7 +7866,7 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7927,13 +7930,13 @@
         <v>2500</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G169" s="22" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H169" s="22" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I169" s="46" t="s">
         <v>57</v>
@@ -7951,12 +7954,12 @@
         <v>320</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -7985,7 +7988,7 @@
         <v>386</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>39</v>
@@ -8020,7 +8023,7 @@
         <v>2500</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>57</v>
@@ -8041,7 +8044,7 @@
         <v>328</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>216</v>
@@ -8049,7 +8052,7 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="176" spans="1:15">
@@ -8116,13 +8119,13 @@
         <v>2500</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>57</v>
@@ -8148,7 +8151,7 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -8177,46 +8180,46 @@
         <v>156</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L180" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N180" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R180" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U180" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V180" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W180" s="1" t="s">
         <v>157</v>
@@ -8225,13 +8228,13 @@
         <v>72</v>
       </c>
       <c r="Y180" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z180" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA180" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -8251,7 +8254,7 @@
         <v>2400</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>324</v>
@@ -8287,10 +8290,10 @@
         <v>59</v>
       </c>
       <c r="V181" s="47" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="W181" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="X181" s="1">
         <v>1500</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -8336,13 +8339,13 @@
         <v>386</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>73</v>
@@ -8371,7 +8374,7 @@
         <v>96</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>57</v>
@@ -8380,13 +8383,13 @@
         <v>1510000830</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>83</v>
@@ -8397,7 +8400,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8445,28 +8448,28 @@
         <v>73</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>366</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K188" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>105</v>
@@ -8497,34 +8500,34 @@
         <v>10600194</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J189" s="3" t="s">
         <v>175</v>
       </c>
       <c r="K189" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O189">
         <v>1510000830</v>
@@ -8571,7 +8574,7 @@
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="192" spans="1:17">
@@ -8609,22 +8612,22 @@
         <v>39</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>300</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" spans="1:17">
@@ -8644,13 +8647,13 @@
         <v>2500</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I193" s="41" t="s">
         <v>57</v>
@@ -8668,7 +8671,7 @@
         <v>320</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>216</v>
@@ -8677,12 +8680,12 @@
         <v>4</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -8714,13 +8717,13 @@
         <v>386</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>73</v>
@@ -8746,10 +8749,10 @@
         <v>2500</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>57</v>
@@ -8758,13 +8761,13 @@
         <v>1510000684</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>83</v>
@@ -8775,7 +8778,7 @@
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" spans="1:15">
@@ -8801,7 +8804,7 @@
         <v>312</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>386</v>
@@ -8822,7 +8825,7 @@
         <v>301</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="201" spans="1:15">
@@ -8836,19 +8839,19 @@
         <v>23</v>
       </c>
       <c r="D201" s="41" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I201" s="1">
         <v>1510000848</v>
@@ -8866,7 +8869,7 @@
         <v>352</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O201" s="41" t="s">
         <v>57</v>
@@ -8874,7 +8877,7 @@
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -8900,16 +8903,16 @@
         <v>206</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L204" s="1" t="s">
         <v>251</v>
@@ -8921,10 +8924,10 @@
         <v>312</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -8965,21 +8968,21 @@
         <v>4</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>302</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9002,13 +9005,13 @@
         <v>39</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>42</v>
@@ -9040,7 +9043,7 @@
         <v>57</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J209" s="16" t="s">
         <v>49</v>
@@ -9048,7 +9051,7 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -9112,10 +9115,10 @@
         <v>2500</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H213" s="41" t="s">
         <v>57</v>
@@ -9133,7 +9136,7 @@
         <v>328</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N213" s="41" t="s">
         <v>58</v>

--- a/TestData/TestData_Smart.xlsx
+++ b/TestData/TestData_Smart.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="512">
   <si>
     <t>SER01_AccountSearch</t>
   </si>
@@ -872,6 +872,9 @@
     <t>AUTO SCRIPT TEST</t>
   </si>
   <si>
+    <t>Test1</t>
+  </si>
+  <si>
     <t>CQT19_IPSCiscoIDRefreshIcon</t>
   </si>
   <si>
@@ -1217,12 +1220,12 @@
     <t>BEAR</t>
   </si>
   <si>
+    <t>CQT35_IPSBearTax</t>
+  </si>
+  <si>
     <t>E_site Location Test</t>
   </si>
   <si>
-    <t>CQT35_IPSBearTax</t>
-  </si>
-  <si>
     <t>CQT36_IPSContractPricingCiscoCostPlusContract</t>
   </si>
   <si>
@@ -1238,21 +1241,33 @@
     <t>LineItem4</t>
   </si>
   <si>
+    <t>ContractsTab</t>
+  </si>
+  <si>
     <t>Tab3</t>
   </si>
   <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>ExpRate</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
     <t>VC</t>
   </si>
   <si>
     <t>000060</t>
   </si>
   <si>
-    <t>Z0RC#YMSM#ZP00#YP00</t>
-  </si>
-  <si>
     <t>UFTTest1</t>
   </si>
   <si>
+    <t>ZP00#Z0RC#YP00</t>
+  </si>
+  <si>
     <t>CQT37_IPSContractPricing_CiscoFixedPriceContract</t>
   </si>
   <si>
@@ -1439,13 +1454,7 @@
     <t>CQT49_IPSCappingAtListPriceWithTIC</t>
   </si>
   <si>
-    <t>Value1</t>
-  </si>
-  <si>
     <t>expValue1</t>
-  </si>
-  <si>
-    <t>Value2</t>
   </si>
   <si>
     <t>expValue2</t>
@@ -1553,10 +1562,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1623,7 +1632,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1645,24 +1676,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1670,22 +1692,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1700,22 +1707,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1730,22 +1738,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1772,7 +1781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,13 +1799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,13 +1823,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,19 +1883,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,103 +1955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,6 +1966,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1979,30 +2003,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2032,6 +2032,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2049,21 +2060,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2075,134 +2081,137 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3383,8 +3392,8 @@
   <sheetPr/>
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" topLeftCell="M57" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70:O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4926,7 +4935,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -4969,8 +4978,23 @@
       <c r="N62" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -5012,6 +5036,21 @@
       </c>
       <c r="N63">
         <v>1510000935</v>
+      </c>
+      <c r="O63" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="P63" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q63" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="R63" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -5019,7 +5058,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -5062,8 +5101,14 @@
       <c r="N66" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -5105,6 +5150,12 @@
       </c>
       <c r="N67" s="3">
         <v>1510000927</v>
+      </c>
+      <c r="O67" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -5112,7 +5163,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -5143,8 +5194,23 @@
       <c r="J70" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -5175,10 +5241,25 @@
       <c r="J71" s="1">
         <v>1510001038</v>
       </c>
+      <c r="K71" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L71" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="M71" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5198,13 +5279,13 @@
         <v>71</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5230,15 +5311,15 @@
         <v>24</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -5255,13 +5336,13 @@
         <v>71</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>105</v>
@@ -5269,8 +5350,11 @@
       <c r="J78" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -5298,13 +5382,16 @@
       <c r="J79" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="K79" s="41" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="4" t="s">
         <v>1</v>
       </c>
@@ -5324,34 +5411,37 @@
         <v>105</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>302</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
@@ -5365,10 +5455,10 @@
         <v>10529929</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>216</v>
@@ -5377,33 +5467,36 @@
         <v>145</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M83" s="1">
         <v>4</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="P83" s="41" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
@@ -5420,10 +5513,10 @@
         <v>178</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>105</v>
@@ -5432,25 +5525,28 @@
         <v>250</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>302</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="4" t="s">
         <v>21</v>
       </c>
@@ -5464,13 +5560,13 @@
         <v>10529929</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H87" s="1">
         <v>1510000957</v>
@@ -5479,10 +5575,10 @@
         <v>216</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>145</v>
@@ -5491,18 +5587,21 @@
         <v>4</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="P87" s="41" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="4" t="s">
         <v>1</v>
       </c>
@@ -5516,10 +5615,10 @@
         <v>118</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>178</v>
@@ -5531,31 +5630,40 @@
         <v>250</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+        <v>302</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="4" t="s">
         <v>21</v>
       </c>
@@ -5572,13 +5680,13 @@
         <v>267</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>216</v>
@@ -5587,30 +5695,39 @@
         <v>145</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O91" s="1">
         <v>4</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="R91" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S91" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="T91" s="41" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5624,7 +5741,7 @@
         <v>212</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>214</v>
@@ -5633,22 +5750,22 @@
         <v>179</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>196</v>
@@ -5657,10 +5774,10 @@
         <v>197</v>
       </c>
       <c r="O94" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P94" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5674,25 +5791,25 @@
         <v>23</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>216</v>
@@ -5701,13 +5818,13 @@
         <v>1510000454</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P95" s="1">
         <v>1</v>
@@ -5715,7 +5832,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5735,10 +5852,10 @@
         <v>178</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>105</v>
@@ -5747,19 +5864,19 @@
         <v>250</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K98" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M98" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="N98" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5776,16 +5893,16 @@
         <v>10529929</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>220</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>216</v>
@@ -5794,10 +5911,10 @@
         <v>145</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M99" s="1">
         <v>4</v>
@@ -5808,7 +5925,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5828,10 +5945,10 @@
         <v>178</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>105</v>
@@ -5840,19 +5957,19 @@
         <v>250</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K102" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M102" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L102" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="N102" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5869,16 +5986,16 @@
         <v>10529929</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>216</v>
@@ -5887,10 +6004,10 @@
         <v>145</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M103" s="1">
         <v>4</v>
@@ -5901,7 +6018,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5921,22 +6038,22 @@
         <v>178</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>250</v>
@@ -5951,7 +6068,7 @@
         <v>42</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5968,7 +6085,7 @@
         <v>10529929</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -5983,10 +6100,10 @@
         <v>1</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>216</v>
@@ -6001,12 +6118,12 @@
         <v>49</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6032,25 +6149,25 @@
         <v>250</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I110" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="L110" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6067,7 +6184,7 @@
         <v>10283502</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F111" s="1">
         <v>1510000771</v>
@@ -6079,10 +6196,10 @@
         <v>145</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K111" s="1">
         <v>4</v>
@@ -6091,15 +6208,15 @@
         <v>216</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6119,10 +6236,10 @@
         <v>178</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>105</v>
@@ -6131,16 +6248,16 @@
         <v>250</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>42</v>
@@ -6166,10 +6283,10 @@
         <v>267</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H115" s="1">
         <v>1510000935</v>
@@ -6184,10 +6301,10 @@
         <v>1</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>49</v>
@@ -6203,7 +6320,7 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6248,10 +6365,10 @@
         <v>71</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>262</v>
@@ -6263,7 +6380,7 @@
         <v>264</v>
       </c>
       <c r="K118" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -6295,13 +6412,13 @@
         <v>10529929</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>269</v>
@@ -6335,7 +6452,7 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -6389,7 +6506,7 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6434,7 +6551,7 @@
         <v>155</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>262</v>
@@ -6446,28 +6563,28 @@
         <v>264</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K123" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>73</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
@@ -6493,10 +6610,10 @@
         <v>10529929</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G124" s="3">
         <v>12345</v>
@@ -6508,19 +6625,19 @@
         <v>269</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K124" s="14">
         <v>12345</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M124" s="3">
         <v>12345</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O124" s="3">
         <v>90</v>
@@ -6571,7 +6688,7 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6616,7 +6733,7 @@
         <v>71</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>262</v>
@@ -6628,28 +6745,28 @@
         <v>264</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>73</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
@@ -6675,10 +6792,10 @@
         <v>10283502</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G128" s="3">
         <v>12345</v>
@@ -6690,19 +6807,19 @@
         <v>271</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K128" s="14">
         <v>12345</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M128" s="3">
         <v>12345</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O128" s="3">
         <v>90</v>
@@ -6729,7 +6846,7 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -6783,7 +6900,7 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6800,25 +6917,25 @@
         <v>118</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>206</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6838,27 +6955,27 @@
         <v>201</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>216</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -6887,37 +7004,37 @@
         <v>62</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>74</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T136" s="1" t="s">
         <v>73</v>
@@ -6940,10 +7057,10 @@
         <v>2500</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>57</v>
@@ -6952,19 +7069,19 @@
         <v>1510000935</v>
       </c>
       <c r="J137" s="1">
-        <v>1234</v>
+        <v>12345</v>
       </c>
       <c r="K137" s="1">
         <v>1234</v>
       </c>
-      <c r="L137" s="1">
-        <v>1234</v>
-      </c>
-      <c r="M137" s="1">
-        <v>1234</v>
+      <c r="L137" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>269</v>
@@ -6973,16 +7090,16 @@
         <v>232</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="R137" s="1">
         <v>12345</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -7016,37 +7133,37 @@
         <v>62</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R140" s="1" t="s">
         <v>74</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T140" s="1" t="s">
         <v>73</v>
@@ -7069,10 +7186,10 @@
         <v>2500</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>57</v>
@@ -7081,19 +7198,19 @@
         <v>1510000935</v>
       </c>
       <c r="J141" s="1">
-        <v>1234</v>
+        <v>12345</v>
       </c>
       <c r="K141" s="1">
         <v>1234</v>
       </c>
-      <c r="L141" s="1">
-        <v>1234</v>
-      </c>
-      <c r="M141" s="1">
-        <v>1234</v>
+      <c r="L141" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>269</v>
@@ -7102,24 +7219,24 @@
         <v>232</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R141" s="1">
         <v>12345</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" s="4" t="s">
         <v>1</v>
       </c>
@@ -7136,55 +7253,61 @@
         <v>37</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>40</v>
+        <v>407</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U144" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="145" spans="1:21">
+      <c r="V144" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="4" t="s">
         <v>21</v>
       </c>
@@ -7207,7 +7330,7 @@
         <v>57</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I145" s="41" t="s">
         <v>58</v>
@@ -7222,7 +7345,7 @@
         <v>24</v>
       </c>
       <c r="M145" s="41" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="N145" s="1">
         <v>36</v>
@@ -7237,21 +7360,27 @@
         <v>145</v>
       </c>
       <c r="R145" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S145" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T145" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="T145" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="U145" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="W145" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -7268,49 +7397,49 @@
         <v>118</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -7327,13 +7456,13 @@
         <v>10529929</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H149" s="1">
         <v>12</v>
@@ -7345,36 +7474,36 @@
         <v>24</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L149" s="1">
         <v>36</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>216</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>145</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -7394,49 +7523,49 @@
         <v>37</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U152" s="1" t="s">
         <v>74</v>
@@ -7459,13 +7588,13 @@
         <v>2500</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G153" s="41" t="s">
         <v>57</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I153" s="41" t="s">
         <v>58</v>
@@ -7480,7 +7609,7 @@
         <v>24</v>
       </c>
       <c r="M153" s="41" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="N153" s="1">
         <v>36</v>
@@ -7498,18 +7627,18 @@
         <v>4</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="U153" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -7529,49 +7658,49 @@
         <v>37</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="R156" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -7597,7 +7726,7 @@
         <v>57</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I157" s="41" t="s">
         <v>58</v>
@@ -7612,7 +7741,7 @@
         <v>24</v>
       </c>
       <c r="M157" s="41" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="N157" s="1">
         <v>36</v>
@@ -7630,15 +7759,15 @@
         <v>4</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -7658,49 +7787,49 @@
         <v>37</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="R160" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -7726,7 +7855,7 @@
         <v>57</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I161" s="41" t="s">
         <v>58</v>
@@ -7741,7 +7870,7 @@
         <v>24</v>
       </c>
       <c r="M161" s="41" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="N161" s="1">
         <v>36</v>
@@ -7759,15 +7888,15 @@
         <v>1</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -7799,19 +7928,19 @@
         <v>52</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>40</v>
@@ -7834,13 +7963,13 @@
         <v>2500</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>57</v>
@@ -7855,10 +7984,10 @@
         <v>4</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>216</v>
@@ -7866,7 +7995,7 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7898,19 +8027,19 @@
         <v>62</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -7930,13 +8059,13 @@
         <v>2500</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G169" s="22" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H169" s="22" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I169" s="46" t="s">
         <v>57</v>
@@ -7951,15 +8080,15 @@
         <v>3</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -7985,22 +8114,22 @@
         <v>62</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>40</v>
@@ -8023,7 +8152,7 @@
         <v>2500</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>57</v>
@@ -8041,10 +8170,10 @@
         <v>4</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>216</v>
@@ -8052,7 +8181,7 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="176" spans="1:15">
@@ -8084,19 +8213,19 @@
         <v>62</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>40</v>
@@ -8119,13 +8248,13 @@
         <v>2500</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>57</v>
@@ -8140,10 +8269,10 @@
         <v>4</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>216</v>
@@ -8151,7 +8280,7 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -8180,46 +8309,46 @@
         <v>156</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L180" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="N180" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="R180" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="U180" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="V180" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="W180" s="1" t="s">
         <v>157</v>
@@ -8228,13 +8357,13 @@
         <v>72</v>
       </c>
       <c r="Y180" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z180" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AA180" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -8254,13 +8383,13 @@
         <v>2400</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I181" s="41" t="s">
         <v>57</v>
@@ -8272,7 +8401,7 @@
         <v>1510000684</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N181" s="1" t="s">
         <v>216</v>
@@ -8290,10 +8419,10 @@
         <v>59</v>
       </c>
       <c r="V181" s="47" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="W181" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="X181" s="1">
         <v>1500</v>
@@ -8307,7 +8436,7 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -8336,16 +8465,16 @@
         <v>62</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>73</v>
@@ -8374,7 +8503,7 @@
         <v>96</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>57</v>
@@ -8383,13 +8512,13 @@
         <v>1510000830</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>83</v>
@@ -8400,7 +8529,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8448,28 +8577,28 @@
         <v>73</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K188" s="14" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>105</v>
@@ -8500,34 +8629,34 @@
         <v>10600194</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="J189" s="3" t="s">
         <v>175</v>
       </c>
       <c r="K189" s="14" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="O189">
         <v>1510000830</v>
@@ -8574,7 +8703,7 @@
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:17">
@@ -8606,28 +8735,28 @@
         <v>52</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>473</v>
+        <v>409</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="1:17">
@@ -8647,13 +8776,13 @@
         <v>2500</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="I193" s="41" t="s">
         <v>57</v>
@@ -8668,10 +8797,10 @@
         <v>3</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>216</v>
@@ -8680,12 +8809,12 @@
         <v>4</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -8714,16 +8843,16 @@
         <v>62</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>73</v>
@@ -8749,10 +8878,10 @@
         <v>2500</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>57</v>
@@ -8761,13 +8890,13 @@
         <v>1510000684</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>83</v>
@@ -8778,7 +8907,7 @@
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="200" spans="1:15">
@@ -8798,16 +8927,16 @@
         <v>178</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>39</v>
@@ -8816,16 +8945,16 @@
         <v>198</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="201" spans="1:15">
@@ -8839,19 +8968,19 @@
         <v>23</v>
       </c>
       <c r="D201" s="41" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="I201" s="1">
         <v>1510000848</v>
@@ -8866,10 +8995,10 @@
         <v>4</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O201" s="41" t="s">
         <v>57</v>
@@ -8877,7 +9006,7 @@
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -8897,37 +9026,37 @@
         <v>178</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>206</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L204" s="1" t="s">
         <v>251</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -8968,21 +9097,21 @@
         <v>4</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="O205" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9005,13 +9134,13 @@
         <v>39</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>42</v>
@@ -9043,7 +9172,7 @@
         <v>57</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J209" s="16" t="s">
         <v>49</v>
@@ -9051,7 +9180,7 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -9080,19 +9209,19 @@
         <v>52</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N212" s="1" t="s">
         <v>53</v>
@@ -9115,10 +9244,10 @@
         <v>2500</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H213" s="41" t="s">
         <v>57</v>
@@ -9133,10 +9262,10 @@
         <v>2</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N213" s="41" t="s">
         <v>58</v>

--- a/TestData/TestData_Smart.xlsx
+++ b/TestData/TestData_Smart.xlsx
@@ -1563,9 +1563,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1631,15 +1631,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1652,9 +1653,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1670,54 +1670,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1738,14 +1716,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1753,6 +1739,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1775,43 +1775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,13 +1793,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,91 +1841,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1949,13 +1883,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,45 +1966,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2026,19 +1987,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2060,19 +2049,33 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2081,137 +2084,134 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3392,8 +3392,8 @@
   <sheetPr/>
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M57" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70:O71"/>
+    <sheetView tabSelected="1" topLeftCell="K192" workbookViewId="0">
+      <selection activeCell="K205" sqref="K205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9082,16 +9082,16 @@
         <v>216</v>
       </c>
       <c r="H205" s="1">
+        <v>1</v>
+      </c>
+      <c r="I205" s="1">
         <v>2</v>
       </c>
-      <c r="I205" s="1">
+      <c r="J205" s="1">
         <v>3</v>
       </c>
-      <c r="J205" s="1">
+      <c r="K205" s="1">
         <v>4</v>
-      </c>
-      <c r="K205" s="1">
-        <v>5</v>
       </c>
       <c r="L205" s="1">
         <v>4</v>

--- a/TestData/TestData_Smart.xlsx
+++ b/TestData/TestData_Smart.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Delivery\Projects\Insight\Code\Jan22\Insight_New_Jan\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16206C3-55E2-4125-A73B-A9A56FC86597}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="511">
   <si>
     <t>SER01_AccountSearch</t>
   </si>
@@ -624,9 +630,6 @@
   </si>
   <si>
     <t>BR71849816XD</t>
-  </si>
-  <si>
-    <t>2--Line 20</t>
   </si>
   <si>
     <t>ZPMU</t>
@@ -1559,15 +1562,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1625,142 +1624,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1773,194 +1643,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1968,254 +1652,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2232,7 +1677,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2244,7 +1689,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2259,13 +1704,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2283,14 +1725,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2300,97 +1739,54 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="Normal 6" xfId="45"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2648,40 +2044,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="23.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="17.4285714285714" customWidth="1"/>
-    <col min="18" max="18" width="20.5714285714286" customWidth="1"/>
-    <col min="19" max="19" width="13.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2743,7 +2139,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -2758,7 +2154,7 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
@@ -2767,28 +2163,28 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="33" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="34" t="s">
         <v>33</v>
       </c>
       <c r="Q3" t="s">
@@ -2797,20 +2193,20 @@
       <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -2822,10 +2218,10 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G6" t="s">
@@ -2843,12 +2239,12 @@
       <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:20">
+      <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
@@ -2857,13 +2253,13 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <v>10283501</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="30">
         <v>2400</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="26" t="s">
         <v>44</v>
       </c>
       <c r="G7" t="s">
@@ -2872,7 +2268,7 @@
       <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="35" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -2881,11 +2277,11 @@
       <c r="K7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="1:20">
       <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
@@ -2893,57 +2289,55 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="33"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="28"/>
-      <c r="I11" s="38"/>
+    <row r="9" spans="1:20">
+      <c r="A9" s="31"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="26"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="27"/>
+      <c r="K11" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" display="qatester01@insight.com"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="11.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="10.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
-    <col min="5" max="7" width="10.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="7" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2968,8 +2362,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -2978,29 +2372,29 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -3032,7 +2426,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
@@ -3041,74 +2435,72 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>57</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="6:6">
-      <c r="F11" s="27"/>
+    <row r="11" spans="1:10">
+      <c r="F11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="15.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="15.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="21.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="28.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="19.5714285714286" customWidth="1"/>
-    <col min="13" max="13" width="17.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="30.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="15.8571428571429" customWidth="1"/>
-    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
-    <col min="17" max="17" width="10.5714285714286"/>
-    <col min="18" max="18" width="18.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="28.26953125" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" customWidth="1"/>
+    <col min="14" max="14" width="30.7265625" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875"/>
+    <col min="18" max="18" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3129,7 +2521,7 @@
       <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>74</v>
       </c>
       <c r="I2" t="s">
@@ -3164,7 +2556,7 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -3176,10 +2568,10 @@
       <c r="D3" s="3">
         <v>10933584</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <v>15</v>
       </c>
       <c r="G3" t="s">
@@ -3220,20 +2612,20 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="25"/>
+      <c r="A4" s="23"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="28"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="R4" s="27"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="24" t="s">
+      <c r="E4" s="26"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -3245,7 +2637,7 @@
       <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -3254,7 +2646,7 @@
       <c r="G6" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="27" t="s">
         <v>93</v>
       </c>
       <c r="I6" t="s">
@@ -3263,12 +2655,12 @@
       <c r="J6" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
@@ -3277,19 +2669,19 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <v>10529929</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="29">
         <v>1510000935</v>
       </c>
       <c r="I7" t="s">
@@ -3302,41 +2694,39 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="15:18">
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="R11" s="27"/>
+    <row r="11" spans="1:18">
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="R11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="16.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="17.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3345,21 +2735,21 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -3368,66 +2758,64 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>2400</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>317419815</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="24" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="G204" sqref="G204"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="59.2857142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="59.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="11" max="11" width="36.7142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="33.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7265625" style="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="1" customWidth="1"/>
-    <col min="14" max="14" width="50.4285714285714" style="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5714285714286" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7142857142857" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1428571428571" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.2857142857143" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="50.453125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" style="1" customWidth="1"/>
     <col min="22" max="22" width="23" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.2857142857143" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="25" max="26" width="9.14285714285714" style="1"/>
-    <col min="27" max="27" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.14285714285714" style="1"/>
+    <col min="23" max="23" width="16.26953125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.26953125" style="1" customWidth="1"/>
+    <col min="25" max="26" width="9.1796875" style="1"/>
+    <col min="27" max="27" width="22.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -3445,7 +2833,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3489,7 +2877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -3514,7 +2902,7 @@
       <c r="H3" s="3">
         <v>6529107</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="38" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -3523,7 +2911,7 @@
       <c r="K3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="38" t="s">
         <v>58</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -3533,7 +2921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:26">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3687,7 +3075,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
         <v>117</v>
       </c>
@@ -3765,7 +3153,7 @@
       <c r="X10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Y10" s="18" t="s">
+      <c r="Y10" s="17" t="s">
         <v>136</v>
       </c>
       <c r="Z10" s="1" t="s">
@@ -3848,16 +3236,16 @@
       <c r="Y11" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="Z11" s="41" t="s">
+      <c r="Z11" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:26">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -3901,7 +3289,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -3945,7 +3333,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>167</v>
       </c>
@@ -4025,7 +3413,7 @@
       <c r="I19" s="1">
         <v>100</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="39" t="s">
         <v>57</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -4044,12 +3432,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
@@ -4090,7 +3478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -4131,12 +3519,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -4146,7 +3534,7 @@
       <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -4159,25 +3547,28 @@
         <v>81</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -4193,160 +3584,127 @@
       <c r="E27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" s="17">
-        <v>41673</v>
-      </c>
-      <c r="L27" s="17">
-        <v>42111</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="L27" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>118</v>
+      <c r="B30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="1">
         <v>10933584</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>145</v>
+      <c r="H31" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L31" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="N31" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:26">
       <c r="A33" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4359,260 +3717,275 @@
         <v>10933584</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3">
+        <v>10933584</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="1">
-        <v>10933584</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="F39" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>10933584</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="E43" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N43" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
@@ -4623,319 +3996,370 @@
         <v>23</v>
       </c>
       <c r="D47" s="1">
-        <v>10933584</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>96</v>
+        <v>10283502</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="N47" s="41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>243</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="1">
-        <v>10283502</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="D51" s="7">
+        <v>10283501</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="D54" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
+      <c r="G54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="7">
-        <v>10283501</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="D55" s="5">
+        <v>10529929</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1510000517</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S58" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I58" s="1" t="s">
+    <row r="59" spans="1:26">
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="H59" s="1">
+        <v>1510000935</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M59" s="7">
         <v>10529929</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1510000517</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="N59">
+        <v>1510000935</v>
+      </c>
+      <c r="O59" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q59" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="R59" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -4946,16 +4370,16 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>260</v>
+      <c r="G62" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>261</v>
@@ -4967,34 +4391,25 @@
         <v>263</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>36</v>
+        <v>272</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -5004,58 +4419,49 @@
       <c r="C63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="D63" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G63" s="7">
+        <v>10091208</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H63" s="1">
-        <v>1510000935</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M63" s="7">
-        <v>10529929</v>
-      </c>
-      <c r="N63">
-        <v>1510000935</v>
-      </c>
-      <c r="O63" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1510000927</v>
+      </c>
+      <c r="M63" s="3">
+        <v>1510000927</v>
+      </c>
+      <c r="N63" s="3">
+        <v>1510000927</v>
+      </c>
+      <c r="O63" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P63" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q63" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="R63" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="P63" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5068,44 +4474,41 @@
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>257</v>
+      <c r="D66" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>36</v>
+        <v>279</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5118,52 +4521,49 @@
       <c r="C67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G67" s="7">
-        <v>10091208</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L67" s="3">
-        <v>1510000927</v>
-      </c>
-      <c r="M67" s="3">
-        <v>1510000927</v>
-      </c>
-      <c r="N67" s="3">
-        <v>1510000927</v>
-      </c>
-      <c r="O67" s="41" t="s">
+      <c r="D67" s="1">
+        <v>10413716</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1510001038</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1510001038</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1510001038</v>
+      </c>
+      <c r="K67" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="L67" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="M67" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -5176,41 +4576,20 @@
       <c r="D70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>257</v>
+      <c r="E70" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -5220,49 +4599,28 @@
       <c r="C71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="1">
-        <v>10413716</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>282</v>
+      <c r="D71" s="7">
+        <v>10529929</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1510001038</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1510001038</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1510001038</v>
-      </c>
-      <c r="K71" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L71" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="M71" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>147</v>
+      </c>
+      <c r="G71" s="1">
+        <v>24</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -5282,13 +4640,22 @@
         <v>286</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
@@ -5304,23 +4671,29 @@
       <c r="E75" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>147</v>
+      <c r="F75" s="1">
+        <v>24</v>
       </c>
       <c r="G75" s="1">
-        <v>24</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" s="11">
+        <v>1510000782</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K75" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5329,33 +4702,48 @@
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>71</v>
+      <c r="D78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="K78" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P78" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:16">
+      <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5364,423 +4752,435 @@
       <c r="C79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="5">
         <v>10529929</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F79" s="1">
-        <v>24</v>
-      </c>
-      <c r="G79" s="1">
-        <v>36</v>
-      </c>
-      <c r="I79" s="11">
-        <v>1510000782</v>
+      <c r="E79" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K79" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="M79" s="1">
+        <v>4</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="P79" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+    <row r="81" spans="1:20">
+      <c r="A81" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="I82" s="1" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="L82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M82" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:20">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="5">
         <v>10529929</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H83" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1510000957</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="M83" s="1">
         <v>4</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="P83" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="P83" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:20">
       <c r="A85" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="M86" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P86" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="Q86" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="O86" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="P86" s="1" t="s">
+      <c r="R86" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="S86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="5">
         <v>10529929</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>317</v>
+      <c r="E87" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1510000957</v>
+        <v>96</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>319</v>
+        <v>145</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M87" s="1">
+        <v>327</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O87" s="1">
         <v>4</v>
       </c>
-      <c r="N87" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="P87" s="41" t="s">
+      <c r="P87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="R87" s="39" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="S87" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T87" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N90" s="1" t="s">
+      <c r="B90" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="P90" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T90" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="5">
-        <v>10529929</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L91" s="1" t="s">
+      <c r="D91" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1510000454</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="O91" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="M91" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="O91" s="1">
-        <v>4</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="R91" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="S91" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="T91" s="41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="P91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L94" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="O94" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="P94" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="M94" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="4" t="s">
         <v>21</v>
       </c>
@@ -5790,52 +5190,46 @@
       <c r="C95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="E95" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L95" s="4">
-        <v>1510000454</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="P95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="D95" s="5">
+        <v>10529929</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H95" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M95" s="1">
+        <v>4</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="4" t="s">
         <v>1</v>
       </c>
@@ -5852,34 +5246,34 @@
         <v>178</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="M98" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="4" t="s">
         <v>21</v>
       </c>
@@ -5893,42 +5287,42 @@
         <v>10529929</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H99" s="41" t="s">
-        <v>346</v>
+        <v>350</v>
+      </c>
+      <c r="H99" s="39" t="s">
+        <v>351</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>145</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M99" s="1">
         <v>4</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="4" t="s">
         <v>1</v>
       </c>
@@ -5945,34 +5339,40 @@
         <v>178</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>301</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>273</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="4" t="s">
         <v>21</v>
       </c>
@@ -5985,40 +5385,46 @@
       <c r="D103" s="5">
         <v>10529929</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H103" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>216</v>
+      <c r="E103" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>145</v>
+        <v>320</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="M103" s="1">
-        <v>4</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>1510000208</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1510000234</v>
+      </c>
+      <c r="O103" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6035,40 +5441,34 @@
         <v>118</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I106" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>300</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>301</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6082,51 +5482,45 @@
         <v>23</v>
       </c>
       <c r="D107" s="5">
-        <v>10529929</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>359</v>
+        <v>10283502</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="F107" s="1">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1">
-        <v>1</v>
+        <v>1510000771</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I107" s="1">
-        <v>1</v>
+      <c r="I107" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>305</v>
+        <v>362</v>
+      </c>
+      <c r="K107" s="1">
+        <v>4</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M107" s="1">
-        <v>1510000208</v>
-      </c>
-      <c r="N107" s="1">
-        <v>1510000234</v>
-      </c>
-      <c r="O107" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>215</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="4" t="s">
         <v>1</v>
       </c>
@@ -6136,41 +5530,44 @@
       <c r="C110" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I110" s="3" t="s">
+      <c r="I110" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="N110" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="4" t="s">
         <v>21</v>
       </c>
@@ -6180,148 +5577,208 @@
       <c r="C111" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D111" s="5">
-        <v>10283502</v>
+      <c r="D111" s="1">
+        <v>10529929</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F111" s="1">
-        <v>1510000771</v>
+        <v>266</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H111" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1510000935</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="K111" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>216</v>
+        <v>352</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:26">
       <c r="A113" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+    </row>
+    <row r="114" spans="1:26">
+      <c r="A114" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="4" t="s">
+      <c r="D114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K114" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+    </row>
+    <row r="115" spans="1:26">
+      <c r="A115" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="7">
         <v>10529929</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H115" s="1">
-        <v>1510000935</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K115" s="1">
-        <v>1</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="E115" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K115" s="14"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+    </row>
+    <row r="116" spans="1:26">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26">
-      <c r="A117" s="2" t="s">
-        <v>366</v>
-      </c>
+      <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -6349,39 +5806,19 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26">
-      <c r="A118" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="K118" s="14" t="s">
-        <v>368</v>
-      </c>
+      <c r="A118" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="14"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
@@ -6400,42 +5837,56 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="3" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119" s="7">
-        <v>10529929</v>
+        <v>3</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K119" s="14"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
-      <c r="Q119" s="3"/>
+        <v>366</v>
+      </c>
+      <c r="K119" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q119" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
@@ -6447,25 +5898,57 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
+      <c r="A120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="7">
+        <v>10529929</v>
+      </c>
       <c r="E120" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
+      <c r="G120" s="3">
+        <v>12345</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K120" s="14">
+        <v>12345</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M120" s="3">
+        <v>12345</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="O120" s="3">
+        <v>90</v>
+      </c>
+      <c r="P120" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q120" s="20">
+        <v>1E-3</v>
+      </c>
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
@@ -6506,7 +5989,7 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6548,43 +6031,43 @@
         <v>36</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G123" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H123" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I123" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="J123" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K123" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>73</v>
       </c>
       <c r="M123" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="N123" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="N123" s="3" t="s">
+      <c r="O123" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="O123" s="3" t="s">
+      <c r="P123" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="P123" s="3" t="s">
+      <c r="Q123" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="Q123" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
@@ -6607,13 +6090,13 @@
         <v>23</v>
       </c>
       <c r="D124" s="7">
-        <v>10529929</v>
+        <v>10283502</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="G124" s="3">
         <v>12345</v>
@@ -6622,31 +6105,31 @@
         <v>269</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K124" s="14">
         <v>12345</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M124" s="3">
         <v>12345</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O124" s="3">
         <v>90</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q124" s="21">
-        <v>0.001</v>
+        <v>268</v>
+      </c>
+      <c r="Q124" s="20">
+        <v>1E-3</v>
       </c>
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
@@ -6663,7 +6146,9 @@
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -6687,9 +6172,7 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26">
-      <c r="A126" s="2" t="s">
-        <v>382</v>
-      </c>
+      <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -6717,193 +6200,86 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26">
+      <c r="A128" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B128" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="K127" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M127" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="N127" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="O127" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="P127" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q127" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="R127" s="3"/>
-      <c r="S127" s="3"/>
-      <c r="T127" s="3"/>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
-      <c r="W127" s="3"/>
-      <c r="X127" s="3"/>
-      <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
-    </row>
-    <row r="128" spans="1:26">
-      <c r="A128" s="3" t="s">
+      <c r="D128" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
+      <c r="A129" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B129" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D128" s="7">
-        <v>10283502</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G128" s="3">
-        <v>12345</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="K128" s="14">
-        <v>12345</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="M128" s="3">
-        <v>12345</v>
-      </c>
-      <c r="N128" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="O128" s="3">
-        <v>90</v>
-      </c>
-      <c r="P128" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q128" s="21">
-        <v>0.001</v>
-      </c>
-      <c r="R128" s="3"/>
-      <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
-      <c r="U128" s="3"/>
-      <c r="V128" s="3"/>
-      <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
-      <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
-    </row>
-    <row r="129" spans="1:26">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
+      <c r="D129" s="7">
+        <v>10529929</v>
+      </c>
       <c r="E129" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-      <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="S129" s="3"/>
-      <c r="T129" s="3"/>
-      <c r="U129" s="3"/>
-      <c r="V129" s="3"/>
-      <c r="W129" s="3"/>
-      <c r="X129" s="3"/>
-      <c r="Y129" s="3"/>
-      <c r="Z129" s="3"/>
-    </row>
-    <row r="130" spans="1:26">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="14"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-      <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="3"/>
-      <c r="T130" s="3"/>
-      <c r="U130" s="3"/>
-      <c r="V130" s="3"/>
-      <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
-      <c r="Y130" s="3"/>
-      <c r="Z130" s="3"/>
-    </row>
-    <row r="131" spans="1:1">
+        <v>201</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G129" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="4" t="s">
         <v>1</v>
       </c>
@@ -6914,31 +6290,58 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="P132" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="Q132" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T132" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="4" t="s">
         <v>21</v>
       </c>
@@ -6948,37 +6351,64 @@
       <c r="C133" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="5">
         <v>10529929</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>201</v>
+      <c r="E133" s="1">
+        <v>2500</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G133" s="41" t="s">
-        <v>389</v>
+        <v>368</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I133" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="I133" s="21">
+        <v>1510000935</v>
+      </c>
+      <c r="J133" s="1">
+        <v>12345</v>
+      </c>
+      <c r="K133" s="1">
+        <v>1234</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R133" s="1">
+        <v>12345</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T133" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="4" t="s">
         <v>1</v>
       </c>
@@ -7004,43 +6434,43 @@
         <v>62</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J136" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K136" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="L136" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="L136" s="1" t="s">
+      <c r="M136" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="M136" s="1" t="s">
+      <c r="N136" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O136" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>74</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T136" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:23">
       <c r="A137" s="4" t="s">
         <v>21</v>
       </c>
@@ -7051,21 +6481,21 @@
         <v>23</v>
       </c>
       <c r="D137" s="5">
-        <v>10529929</v>
+        <v>10283502</v>
       </c>
       <c r="E137" s="1">
         <v>2500</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I137" s="22">
+      <c r="I137" s="21">
         <v>1510000935</v>
       </c>
       <c r="J137" s="1">
@@ -7075,39 +6505,39 @@
         <v>1234</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>269</v>
+        <v>400</v>
       </c>
       <c r="R137" s="1">
         <v>12345</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="4" t="s">
         <v>1</v>
       </c>
@@ -7124,52 +6554,61 @@
         <v>37</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>155</v>
+        <v>383</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>132</v>
+        <v>402</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>392</v>
+        <v>286</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>394</v>
+        <v>290</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="R140" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="U140" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S140" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="T140" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20">
+      <c r="V140" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="4" t="s">
         <v>21</v>
       </c>
@@ -7180,60 +6619,69 @@
         <v>23</v>
       </c>
       <c r="D141" s="5">
-        <v>10283502</v>
+        <v>10529929</v>
       </c>
       <c r="E141" s="1">
         <v>2500</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>369</v>
+        <v>201</v>
+      </c>
+      <c r="G141" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I141" s="22">
-        <v>1510000935</v>
+        <v>411</v>
+      </c>
+      <c r="I141" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="J141" s="1">
-        <v>12345</v>
-      </c>
-      <c r="K141" s="1">
-        <v>1234</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N141" s="1" t="s">
-        <v>399</v>
+        <v>12</v>
+      </c>
+      <c r="K141" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L141" s="1">
+        <v>24</v>
+      </c>
+      <c r="M141" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="N141" s="1">
+        <v>36</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="P141" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
+      </c>
+      <c r="P141" s="1">
+        <v>1510000529</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>401</v>
+        <v>145</v>
       </c>
       <c r="R141" s="1">
-        <v>12345</v>
+        <v>1</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>327</v>
+      </c>
+      <c r="U141" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="W141" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="2" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -7247,67 +6695,55 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="G144" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I144" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I144" s="1" t="s">
+      <c r="J144" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K144" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>291</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>105</v>
+        <v>417</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>408</v>
+        <v>295</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="T144" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="U144" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V144" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="W144" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" s="4" t="s">
         <v>21</v>
       </c>
@@ -7317,73 +6753,61 @@
       <c r="C145" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="7">
         <v>10529929</v>
       </c>
-      <c r="E145" s="1">
-        <v>2500</v>
+      <c r="E145" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G145" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H145" s="1">
+        <v>12</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J145" s="1">
+        <v>24</v>
+      </c>
+      <c r="K145" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I145" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="J145" s="1">
-        <v>12</v>
-      </c>
-      <c r="K145" s="41" t="s">
-        <v>60</v>
-      </c>
       <c r="L145" s="1">
-        <v>24</v>
-      </c>
-      <c r="M145" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="N145" s="1">
         <v>36</v>
       </c>
+      <c r="M145" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="O145" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P145" s="1">
-        <v>1510000529</v>
+        <v>389</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R145" s="1">
-        <v>1</v>
+        <v>304</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="T145" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="U145" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="V145" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="W145" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" s="4" t="s">
         <v>1</v>
       </c>
@@ -7394,55 +6818,61 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I148" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I148" s="1" t="s">
+      <c r="J148" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K148" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="L148" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="N148" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K148" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="M148" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="N148" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="O148" s="1" t="s">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>296</v>
+        <v>407</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19">
+        <v>300</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" s="4" t="s">
         <v>21</v>
       </c>
@@ -7452,58 +6882,64 @@
       <c r="C149" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149" s="5">
         <v>10529929</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>419</v>
+      <c r="E149" s="1">
+        <v>2500</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G149" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I149" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="J149" s="1">
+        <v>12</v>
+      </c>
+      <c r="K149" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L149" s="1">
+        <v>24</v>
+      </c>
+      <c r="M149" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="H149" s="1">
-        <v>12</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J149" s="1">
-        <v>24</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="L149" s="1">
+      <c r="N149" s="1">
         <v>36</v>
       </c>
-      <c r="M149" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="N149" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="O149" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="P149" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P149" s="1">
+        <v>1510000684</v>
+      </c>
+      <c r="Q149" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q149" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="R149" s="1" t="s">
-        <v>307</v>
+      <c r="R149" s="1">
+        <v>4</v>
       </c>
       <c r="S149" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="T149" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U149" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -7523,52 +6959,49 @@
         <v>37</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I152" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K152" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J152" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K152" s="1" t="s">
+      <c r="L152" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M152" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="L152" s="1" t="s">
+      <c r="N152" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="N152" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R152" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S152" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="S152" s="1" t="s">
+      <c r="T152" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="T152" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="U152" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -7588,37 +7021,37 @@
         <v>2500</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G153" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="G153" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I153" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="I153" s="39" t="s">
         <v>58</v>
       </c>
       <c r="J153" s="1">
         <v>12</v>
       </c>
-      <c r="K153" s="41" t="s">
+      <c r="K153" s="39" t="s">
         <v>60</v>
       </c>
       <c r="L153" s="1">
         <v>24</v>
       </c>
-      <c r="M153" s="41" t="s">
-        <v>413</v>
+      <c r="M153" s="39" t="s">
+        <v>412</v>
       </c>
       <c r="N153" s="1">
         <v>36</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P153" s="1">
-        <v>1510000684</v>
+        <v>1510000782</v>
       </c>
       <c r="Q153" s="1" t="s">
         <v>145</v>
@@ -7627,21 +7060,18 @@
         <v>4</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="U153" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:21">
       <c r="A156" s="4" t="s">
         <v>1</v>
       </c>
@@ -7658,52 +7088,52 @@
         <v>37</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I156" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K156" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J156" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K156" s="1" t="s">
+      <c r="L156" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M156" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="L156" s="1" t="s">
+      <c r="N156" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="M156" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="N156" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R156" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S156" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="S156" s="1" t="s">
+      <c r="T156" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="T156" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20">
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" s="4" t="s">
         <v>21</v>
       </c>
@@ -7722,55 +7152,55 @@
       <c r="F157" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G157" s="41" t="s">
+      <c r="G157" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I157" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="I157" s="39" t="s">
         <v>58</v>
       </c>
       <c r="J157" s="1">
         <v>12</v>
       </c>
-      <c r="K157" s="41" t="s">
+      <c r="K157" s="39" t="s">
         <v>60</v>
       </c>
       <c r="L157" s="1">
         <v>24</v>
       </c>
-      <c r="M157" s="41" t="s">
-        <v>413</v>
+      <c r="M157" s="39" t="s">
+        <v>412</v>
       </c>
       <c r="N157" s="1">
         <v>36</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P157" s="1">
-        <v>1510000782</v>
+        <v>1510000935</v>
       </c>
       <c r="Q157" s="1" t="s">
         <v>145</v>
       </c>
       <c r="R157" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:21">
       <c r="A160" s="4" t="s">
         <v>1</v>
       </c>
@@ -7787,52 +7217,37 @@
         <v>37</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>384</v>
+        <v>155</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>403</v>
+        <v>132</v>
       </c>
       <c r="H160" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K160" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I160" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="L160" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P160" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q160" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="R160" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="S160" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="T160" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20">
+    </row>
+    <row r="161" spans="1:27">
       <c r="A161" s="4" t="s">
         <v>21</v>
       </c>
@@ -7843,64 +7258,49 @@
         <v>23</v>
       </c>
       <c r="D161" s="5">
-        <v>10529929</v>
+        <v>10413716</v>
       </c>
       <c r="E161" s="1">
         <v>2500</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G161" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I161" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="J161" s="1">
-        <v>12</v>
-      </c>
-      <c r="K161" s="41" t="s">
-        <v>60</v>
+      <c r="J161" s="4">
+        <v>1510001038</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="L161" s="1">
-        <v>24</v>
-      </c>
-      <c r="M161" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="N161" s="1">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P161" s="1">
-        <v>1510000935</v>
-      </c>
-      <c r="Q161" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R161" s="1">
-        <v>1</v>
-      </c>
-      <c r="S161" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="T161" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
+      <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -7925,29 +7325,26 @@
         <v>156</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="L164" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M164" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M164" s="1" t="s">
+      <c r="N164" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N164" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="O164" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
-      <c r="A165" s="4" t="s">
+    </row>
+    <row r="165" spans="1:27">
+      <c r="A165" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -7957,49 +7354,46 @@
         <v>23</v>
       </c>
       <c r="D165" s="5">
-        <v>10413716</v>
+        <v>10091208</v>
       </c>
       <c r="E165" s="1">
         <v>2500</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I165" s="1" t="s">
+      <c r="F165" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="H165" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="I165" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J165" s="4">
-        <v>1510001038</v>
+      <c r="J165" s="5">
+        <v>1510000761</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>145</v>
       </c>
       <c r="L165" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O165" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="A168" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
+      <c r="A168" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -8018,19 +7412,19 @@
         <v>155</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>156</v>
+        <v>386</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>62</v>
+        <v>435</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>387</v>
+        <v>39</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>126</v>
+        <v>299</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>300</v>
@@ -8039,11 +7433,11 @@
         <v>301</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
-      <c r="A169" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
+      <c r="A169" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -8053,45 +7447,45 @@
         <v>23</v>
       </c>
       <c r="D169" s="5">
-        <v>10091208</v>
+        <v>10283502</v>
       </c>
       <c r="E169" s="1">
         <v>2500</v>
       </c>
-      <c r="F169" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="G169" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="H169" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="I169" s="46" t="s">
+      <c r="F169" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J169" s="5">
-        <v>1510000761</v>
-      </c>
-      <c r="K169" s="1" t="s">
+      <c r="H169" s="5">
+        <v>1510000936</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J169" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L169" s="1">
-        <v>3</v>
+      <c r="K169" s="1">
+        <v>4</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>321</v>
+        <v>422</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172" s="4" t="s">
         <v>1</v>
       </c>
@@ -8111,31 +7505,34 @@
         <v>155</v>
       </c>
       <c r="G172" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I172" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="J172" s="1" t="s">
-        <v>39</v>
+        <v>386</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M172" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="M172" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="N172" s="1" t="s">
+      <c r="O172" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:27">
       <c r="A173" s="4" t="s">
         <v>21</v>
       </c>
@@ -8146,46 +7543,49 @@
         <v>23</v>
       </c>
       <c r="D173" s="5">
-        <v>10283502</v>
+        <v>10108432</v>
       </c>
       <c r="E173" s="1">
         <v>2500</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G173" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I173" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H173" s="5">
-        <v>1510000936</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J173" s="1" t="s">
+      <c r="J173" s="1">
+        <v>1510000750</v>
+      </c>
+      <c r="K173" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K173" s="1">
+      <c r="L173" s="1">
         <v>4</v>
       </c>
-      <c r="L173" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="M173" s="1" t="s">
-        <v>423</v>
+        <v>328</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>353</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27">
       <c r="A175" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
-      <c r="A176" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
+      <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -8210,29 +7610,65 @@
         <v>156</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>62</v>
+        <v>402</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L176" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="M176" s="1" t="s">
-        <v>301</v>
+        <v>443</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
-      <c r="A177" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="W176" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z176" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA176" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -8242,49 +7678,70 @@
         <v>23</v>
       </c>
       <c r="D177" s="5">
-        <v>10108432</v>
+        <v>10529929</v>
       </c>
       <c r="E177" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>439</v>
+        <v>2400</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I177" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="I177" s="39" t="s">
         <v>57</v>
       </c>
       <c r="J177" s="1">
-        <v>1510000750</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L177" s="1">
-        <v>4</v>
-      </c>
-      <c r="M177" s="1" t="s">
-        <v>329</v>
+        <v>1510000529</v>
+      </c>
+      <c r="K177" s="1">
+        <v>1510000684</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="O177" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>215</v>
+      </c>
+      <c r="O177" s="1">
+        <v>1510000957</v>
+      </c>
+      <c r="P177" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>83.63</v>
+      </c>
+      <c r="T177" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="V177" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="X177" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Y177" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA177" s="1">
+        <v>1510000782</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
       <c r="A179" s="2" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="1:27">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -8306,68 +7763,29 @@
         <v>132</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>126</v>
+        <v>456</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>444</v>
+        <v>73</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O180" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="P180" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q180" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="R180" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="S180" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T180" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="U180" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="V180" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="W180" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="X180" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y180" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z180" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA180" s="1" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="1:27">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -8377,337 +7795,331 @@
         <v>23</v>
       </c>
       <c r="D181" s="5">
+        <v>10600194</v>
+      </c>
+      <c r="E181" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I181" s="1">
+        <v>1510000830</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N181" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
+      <c r="A183" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="14"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+      <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
+      <c r="Y183" s="3"/>
+      <c r="Z183" s="3"/>
+    </row>
+    <row r="184" spans="1:27">
+      <c r="A184" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K184" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="3"/>
+      <c r="V184" s="3"/>
+      <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
+      <c r="Y184" s="3"/>
+      <c r="Z184" s="3"/>
+    </row>
+    <row r="185" spans="1:27">
+      <c r="A185" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" s="7">
+        <v>10600194</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K185" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="O185">
+        <v>1510000830</v>
+      </c>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+      <c r="U185" s="3"/>
+      <c r="V185" s="3"/>
+      <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
+      <c r="Y185" s="3"/>
+      <c r="Z185" s="3"/>
+    </row>
+    <row r="186" spans="1:27">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="14"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3"/>
+      <c r="V186" s="3"/>
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
+      <c r="Y186" s="3"/>
+      <c r="Z186" s="3"/>
+    </row>
+    <row r="187" spans="1:27">
+      <c r="A187" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27">
+      <c r="A188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27">
+      <c r="A189" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189" s="5">
         <v>10529929</v>
       </c>
-      <c r="E181" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="I181" s="41" t="s">
+      <c r="E189" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I189" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J181" s="1">
-        <v>1510000529</v>
-      </c>
-      <c r="K181" s="1">
+      <c r="J189" s="1">
         <v>1510000684</v>
       </c>
-      <c r="L181" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O181" s="1">
-        <v>1510000957</v>
-      </c>
-      <c r="P181" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q181" s="1">
-        <v>83.63</v>
-      </c>
-      <c r="T181" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="V181" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="W181" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="X181" s="1">
-        <v>1500</v>
-      </c>
-      <c r="Y181" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA181" s="1">
-        <v>1510000782</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
-      <c r="A184" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="K189" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L189" s="1">
         <v>3</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L184" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="M184" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
-      <c r="A185" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D185" s="5">
-        <v>10600194</v>
-      </c>
-      <c r="E185" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I185" s="1">
-        <v>1510000830</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K185" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M185" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N185" s="1">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="187" spans="1:26">
-      <c r="A187" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="14"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
-      <c r="O187" s="3"/>
-      <c r="P187" s="3"/>
-      <c r="Q187" s="3"/>
-      <c r="R187" s="3"/>
-      <c r="S187" s="3"/>
-      <c r="T187" s="3"/>
-      <c r="U187" s="3"/>
-      <c r="V187" s="3"/>
-      <c r="W187" s="3"/>
-      <c r="X187" s="3"/>
-      <c r="Y187" s="3"/>
-      <c r="Z187" s="3"/>
-    </row>
-    <row r="188" spans="1:26">
-      <c r="A188" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="J188" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K188" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="L188" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="M188" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="N188" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="O188" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P188" s="3"/>
-      <c r="Q188" s="3"/>
-      <c r="R188" s="3"/>
-      <c r="S188" s="3"/>
-      <c r="T188" s="3"/>
-      <c r="U188" s="3"/>
-      <c r="V188" s="3"/>
-      <c r="W188" s="3"/>
-      <c r="X188" s="3"/>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-    </row>
-    <row r="189" spans="1:26">
-      <c r="A189" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D189" s="7">
-        <v>10600194</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="J189" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K189" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="L189" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="M189" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="N189" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="O189">
-        <v>1510000830</v>
-      </c>
-      <c r="P189" s="3"/>
-      <c r="Q189" s="3"/>
-      <c r="R189" s="3"/>
-      <c r="S189" s="3"/>
-      <c r="T189" s="3"/>
-      <c r="U189" s="3"/>
-      <c r="V189" s="3"/>
-      <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
-      <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
-    </row>
-    <row r="190" spans="1:26">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="14"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
-      <c r="O190" s="3"/>
-      <c r="P190" s="3"/>
-      <c r="Q190" s="3"/>
-      <c r="R190" s="3"/>
-      <c r="S190" s="3"/>
-      <c r="T190" s="3"/>
-      <c r="U190" s="3"/>
-      <c r="V190" s="3"/>
-      <c r="W190" s="3"/>
-      <c r="X190" s="3"/>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="M189" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P189" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27">
       <c r="A191" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17">
-      <c r="A192" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
+      <c r="A192" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -8729,38 +8141,29 @@
         <v>132</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>52</v>
+        <v>386</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="O192" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P192" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q192" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17">
-      <c r="A193" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -8782,135 +8185,132 @@
         <v>481</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I193" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="J193" s="1">
+      <c r="I193" s="1">
         <v>1510000684</v>
       </c>
+      <c r="J193" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="K193" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L193" s="1">
-        <v>3</v>
+        <v>485</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="O193" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P193" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q193" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>83</v>
+      </c>
+      <c r="N193" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
       <c r="A195" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
       <c r="A196" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>394</v>
+        <v>39</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>392</v>
+        <v>198</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>395</v>
+        <v>299</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14">
+        <v>301</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
       <c r="A197" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D197" s="5">
-        <v>10529929</v>
-      </c>
-      <c r="E197" s="1">
-        <v>2500</v>
+      <c r="D197" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>490</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="H197" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I197" s="1">
+        <v>1510000848</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L197" s="1">
+        <v>4</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="O197" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="I197" s="1">
-        <v>1510000684</v>
-      </c>
-      <c r="J197" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="K197" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="M197" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N197" s="1">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+    </row>
+    <row r="199" spans="1:16">
       <c r="A199" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
       <c r="A200" s="4" t="s">
         <v>1</v>
       </c>
@@ -8920,44 +8320,47 @@
       <c r="C200" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F200" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N200" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J200" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L200" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="M200" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="O200" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15">
+        <v>488</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
       <c r="A201" s="4" t="s">
         <v>21</v>
       </c>
@@ -8967,154 +8370,121 @@
       <c r="C201" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D201" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>492</v>
+      <c r="D201" s="5">
+        <v>10529929</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1510000517</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>494</v>
+        <v>215</v>
+      </c>
+      <c r="H201" s="1">
+        <v>1</v>
       </c>
       <c r="I201" s="1">
-        <v>1510000848</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K201" s="1" t="s">
-        <v>145</v>
+        <v>2</v>
+      </c>
+      <c r="J201" s="1">
+        <v>3</v>
+      </c>
+      <c r="K201" s="1">
+        <v>4</v>
       </c>
       <c r="L201" s="1">
         <v>4</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>353</v>
+        <v>501</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="O201" s="41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>502</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
       <c r="A203" s="2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="204" spans="1:16">
       <c r="A204" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>118</v>
+      <c r="D204" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>387</v>
+        <v>37</v>
+      </c>
+      <c r="F204" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>206</v>
+        <v>504</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>497</v>
+        <v>62</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="K204" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M204" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O204" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="P204" s="1" t="s">
-        <v>501</v>
+        <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:16">
       <c r="A205" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="1">
         <v>10529929</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F205" s="1">
-        <v>1510000517</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H205" s="1">
-        <v>1</v>
-      </c>
-      <c r="I205" s="1">
-        <v>2</v>
-      </c>
-      <c r="J205" s="1">
-        <v>3</v>
-      </c>
-      <c r="K205" s="1">
-        <v>4</v>
-      </c>
-      <c r="L205" s="1">
-        <v>4</v>
-      </c>
-      <c r="M205" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="O205" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="P205" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="E205" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G205" s="1">
+        <v>1510000518</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J205" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
       <c r="A207" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
       <c r="A208" s="4" t="s">
         <v>1</v>
       </c>
@@ -9130,23 +8500,35 @@
       <c r="E208" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F208" s="16" t="s">
-        <v>39</v>
+      <c r="F208" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>505</v>
+        <v>132</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>506</v>
+        <v>386</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+        <v>126</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="4" t="s">
         <v>21</v>
       </c>
@@ -9156,128 +8538,46 @@
       <c r="C209" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="5">
         <v>10529929</v>
       </c>
       <c r="E209" s="1">
         <v>2500</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G209" s="1">
-        <v>1510000518</v>
-      </c>
-      <c r="H209" s="1" t="s">
+      <c r="F209" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H209" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="I209" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J209" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14">
-      <c r="A212" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="1" t="s">
+      <c r="I209" s="1">
+        <v>1510000208</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K209" s="1">
         <v>2</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J212" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K212" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L212" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M212" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14">
-      <c r="A213" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D213" s="5">
-        <v>10529929</v>
-      </c>
-      <c r="E213" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="G213" s="3" t="s">
+      <c r="L209" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M209" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H213" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I213" s="1">
-        <v>1510000208</v>
-      </c>
-      <c r="J213" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K213" s="1">
-        <v>2</v>
-      </c>
-      <c r="L213" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M213" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="N213" s="41" t="s">
+      <c r="N209" s="39" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M11" r:id="rId1" display="skovatov@insight.com "/>
-    <hyperlink ref="H35" r:id="rId2" display="sTestkovatov@INSIGHT.COM" tooltip="mailto:sTestkovatov@INSIGHT.COM"/>
+    <hyperlink ref="M11" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="H31" r:id="rId2" tooltip="mailto:sTestkovatov@INSIGHT.COM" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>